--- a/data/dcp-data.xlsx
+++ b/data/dcp-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="303">
   <si>
     <t>Tuberculosis</t>
   </si>
@@ -321,9 +321,6 @@
     <t>Chronic respiratory diseases</t>
   </si>
   <si>
-    <t>Cleft lip and cleft palate</t>
-  </si>
-  <si>
     <t>Colon and rectum cancer</t>
   </si>
   <si>
@@ -447,9 +444,6 @@
     <t>Peripheral artery disease</t>
   </si>
   <si>
-    <t>Permanent caries</t>
-  </si>
-  <si>
     <t>Poisonings</t>
   </si>
   <si>
@@ -925,6 +919,15 @@
   </si>
   <si>
     <t>equity</t>
+  </si>
+  <si>
+    <t>Orofacial clefts</t>
+  </si>
+  <si>
+    <t>Caries of permanent teeth</t>
+  </si>
+  <si>
+    <t>HIV/AIDS and tuberculosis</t>
   </si>
 </sst>
 </file>
@@ -2048,7 +2051,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2059,7 +2062,7 @@
   <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,30 +2078,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -2109,7 +2112,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -2120,7 +2123,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -2131,7 +2134,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -2142,7 +2145,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -2153,7 +2156,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -2164,13 +2167,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8">
         <v>0.21691828689811607</v>
@@ -2184,7 +2187,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -2201,7 +2204,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10">
         <v>23</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -2235,7 +2238,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12">
         <v>1.5130245068262688E-2</v>
@@ -2255,7 +2258,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13">
         <v>18</v>
@@ -2272,7 +2275,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -2295,7 +2298,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -2306,7 +2309,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -2323,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17">
         <v>19560</v>
@@ -2340,13 +2343,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -2363,13 +2366,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19">
         <v>2400</v>
@@ -2386,7 +2389,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -2409,13 +2412,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21">
         <v>237.02</v>
@@ -2432,13 +2435,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22">
         <v>32</v>
@@ -2455,13 +2458,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23">
         <v>8.9096486099157115</v>
@@ -2481,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24">
         <v>5.2529935346168033</v>
@@ -2495,13 +2498,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25">
         <v>63</v>
@@ -2518,7 +2521,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -2535,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27">
         <v>2908</v>
@@ -2552,13 +2555,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>301</v>
       </c>
       <c r="E28">
         <v>0.5</v>
@@ -2572,13 +2575,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29">
         <v>95</v>
@@ -2595,7 +2598,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -2615,7 +2618,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -2635,13 +2638,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2664,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33">
         <v>1186</v>
@@ -2681,13 +2684,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34">
         <v>1400</v>
@@ -2704,7 +2707,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -2715,7 +2718,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -2744,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37">
         <v>0.21691828689811607</v>
@@ -2758,7 +2761,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -2781,7 +2784,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -2804,7 +2807,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -2827,7 +2830,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -2850,7 +2853,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -2873,7 +2876,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -2896,7 +2899,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -2907,7 +2910,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -2930,13 +2933,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46">
         <v>5.2529935346168033</v>
@@ -2961,13 +2964,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D48">
         <v>0.05</v>
@@ -2990,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E49">
         <v>5.2529935346168033</v>
@@ -3010,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50">
         <v>11</v>
@@ -3027,7 +3030,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -3073,13 +3076,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53">
         <v>3.0219082286381651</v>
@@ -3093,13 +3096,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54">
         <v>103</v>
@@ -3116,13 +3119,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E55">
         <v>5.2529935346168033</v>
@@ -3136,13 +3139,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56">
         <v>1206</v>
@@ -3159,13 +3162,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E57">
         <v>5.2529935346168033</v>
@@ -3185,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3202,13 +3205,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59">
         <v>64</v>
@@ -3231,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D60">
         <v>3324</v>
@@ -3248,13 +3251,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D61">
         <v>285</v>
@@ -3271,13 +3274,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62">
         <v>88</v>
@@ -3294,13 +3297,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E63">
         <v>10.5</v>
@@ -3334,7 +3337,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -3357,7 +3360,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -3377,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67">
         <v>0.14000000000000001</v>
@@ -3391,13 +3394,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D68">
         <v>1830</v>
@@ -3420,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D69">
         <v>324</v>
@@ -3443,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E70">
         <v>5.2529935346168033</v>
@@ -3463,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3486,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D72">
         <v>3276</v>
@@ -3509,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E73">
         <v>0.41942359295556153</v>
@@ -3523,13 +3526,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D74">
         <v>64</v>
@@ -3546,7 +3549,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B75" t="s">
         <v>32</v>
@@ -3566,13 +3569,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B76" t="s">
         <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E76">
         <v>0.67</v>
@@ -3586,13 +3589,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B77" t="s">
         <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D77">
         <v>5968</v>
@@ -3615,7 +3618,7 @@
         <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78">
         <v>7.6419917665766146</v>
@@ -3635,7 +3638,7 @@
         <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E79">
         <v>16.122124895711178</v>
@@ -3649,13 +3652,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s">
         <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80">
         <v>58</v>
@@ -3678,7 +3681,7 @@
         <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E81">
         <v>16.122124895711178</v>
@@ -3715,13 +3718,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B83" t="s">
         <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83">
         <v>36.340000000000003</v>
@@ -3738,7 +3741,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B84" t="s">
         <v>32</v>
@@ -3749,13 +3752,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B85" t="s">
         <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E85">
         <v>10.803598959475361</v>
@@ -3775,7 +3778,7 @@
         <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E86">
         <v>5.2529935346168033</v>
@@ -3789,7 +3792,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B87" t="s">
         <v>32</v>
@@ -3800,13 +3803,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B88" t="s">
         <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D88">
         <v>64</v>
@@ -3817,13 +3820,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B89" t="s">
         <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E89">
         <v>231.3957558791088</v>
@@ -3837,13 +3840,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
         <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>302</v>
       </c>
       <c r="D90">
         <v>2626</v>
@@ -3871,13 +3874,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B92" t="s">
         <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E92">
         <v>9.2458293766477926</v>
@@ -3891,7 +3894,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B93" t="s">
         <v>32</v>
@@ -3922,7 +3925,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B95" t="s">
         <v>32</v>
@@ -3942,7 +3945,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
         <v>32</v>
@@ -3965,7 +3968,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B97" t="s">
         <v>32</v>
@@ -3994,7 +3997,7 @@
         <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E98">
         <v>1.1635440671162765E-2</v>
@@ -4014,7 +4017,7 @@
         <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D99">
         <v>437</v>
@@ -4031,13 +4034,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B100" t="s">
         <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D100">
         <v>115</v>
@@ -4054,13 +4057,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B101" t="s">
         <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D101">
         <v>147</v>
@@ -4077,13 +4080,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B102" t="s">
         <v>32</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E102">
         <v>9.6124698474463486</v>
@@ -4103,7 +4106,7 @@
         <v>32</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E103">
         <v>16.122124895711178</v>
@@ -4117,13 +4120,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
         <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D104">
         <v>1675</v>
@@ -4140,13 +4143,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B105" t="s">
         <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D105">
         <v>1499</v>
@@ -4163,7 +4166,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B106" t="s">
         <v>32</v>
@@ -4186,13 +4189,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B107" t="s">
         <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D107">
         <v>3560</v>
@@ -4215,7 +4218,7 @@
         <v>32</v>
       </c>
       <c r="C108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D108">
         <v>9</v>
@@ -4232,13 +4235,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B109" t="s">
         <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D109">
         <v>2908</v>
@@ -4255,13 +4258,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
         <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D110">
         <v>12680</v>
@@ -4278,13 +4281,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B111" t="s">
         <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D111">
         <v>17</v>
@@ -4301,13 +4304,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B112" t="s">
         <v>32</v>
       </c>
       <c r="C112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E112">
         <v>2.675764110756124E-2</v>
@@ -4332,7 +4335,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B114" t="s">
         <v>32</v>
@@ -4355,13 +4358,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B115" t="s">
         <v>32</v>
       </c>
       <c r="C115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D115">
         <v>3.16</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B116" t="s">
         <v>32</v>
@@ -4401,7 +4404,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B117" t="s">
         <v>32</v>
@@ -4418,7 +4421,7 @@
         <v>32</v>
       </c>
       <c r="C118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E118">
         <v>16.122124895711178</v>
@@ -4435,7 +4438,7 @@
         <v>32</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E119">
         <v>5.2529935346168033</v>
@@ -4472,7 +4475,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B121" t="s">
         <v>32</v>
@@ -4495,13 +4498,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B122" t="s">
         <v>32</v>
       </c>
       <c r="C122" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -4518,13 +4521,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B123" t="s">
         <v>32</v>
       </c>
       <c r="C123" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D123">
         <v>72799</v>
@@ -4541,13 +4544,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B124" t="s">
         <v>32</v>
       </c>
       <c r="C124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D124">
         <v>2301</v>
@@ -4564,13 +4567,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B125" t="s">
         <v>32</v>
       </c>
       <c r="C125" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E125">
         <v>0.12884216254510045</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B126" t="s">
         <v>32</v>
@@ -4601,7 +4604,7 @@
         <v>32</v>
       </c>
       <c r="C127" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E127">
         <v>16.122124895711178</v>
@@ -4615,13 +4618,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B128" t="s">
         <v>32</v>
       </c>
       <c r="C128" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D128">
         <v>62.55</v>
@@ -4644,7 +4647,7 @@
         <v>32</v>
       </c>
       <c r="C129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D129">
         <v>4898</v>
@@ -4667,7 +4670,7 @@
         <v>32</v>
       </c>
       <c r="C130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D130">
         <v>96</v>
@@ -4690,7 +4693,7 @@
         <v>32</v>
       </c>
       <c r="C131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D131">
         <v>12</v>
@@ -4713,7 +4716,7 @@
         <v>32</v>
       </c>
       <c r="C132" t="s">
-        <v>142</v>
+        <v>301</v>
       </c>
       <c r="E132">
         <v>16.122124895711178</v>
@@ -4727,13 +4730,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D133">
         <v>237</v>
@@ -4750,10 +4753,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B134" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C134" t="s">
         <v>0</v>
@@ -4773,10 +4776,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B135" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C135" t="s">
         <v>93</v>
@@ -4793,13 +4796,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B136" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C136" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D136">
         <v>5488</v>
@@ -4816,10 +4819,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C137" t="s">
         <v>92</v>
@@ -4842,7 +4845,7 @@
         <v>34</v>
       </c>
       <c r="B138" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C138" t="s">
         <v>96</v>
@@ -4862,10 +4865,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B139" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E139">
         <v>3.7862030200502059</v>
@@ -4873,13 +4876,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B140" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C140" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D140">
         <v>72799</v>
@@ -4896,13 +4899,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B141" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D141">
         <v>1089</v>
@@ -4948,7 +4951,7 @@
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D143">
         <v>7163</v>
@@ -4965,13 +4968,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B144" t="s">
         <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D144">
         <v>322.2</v>
@@ -4988,13 +4991,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B145" t="s">
         <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D145">
         <v>60</v>
@@ -5017,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E146">
         <v>93.432191942566149</v>
@@ -5037,7 +5040,7 @@
         <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E147">
         <v>8.7369002659035608</v>
@@ -5057,7 +5060,7 @@
         <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D148">
         <v>47.24</v>
@@ -5080,7 +5083,7 @@
         <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -5103,7 +5106,7 @@
         <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E150">
         <v>5.2529935346168033</v>
@@ -5123,7 +5126,7 @@
         <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E151">
         <v>231.27734299174813</v>
@@ -5137,7 +5140,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B152" t="s">
         <v>2</v>
@@ -5157,13 +5160,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B153" t="s">
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E153">
         <v>93.432191942566149</v>
@@ -5183,7 +5186,7 @@
         <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E154">
         <v>5.2529935346168033</v>
@@ -5197,13 +5200,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B155" t="s">
         <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E155">
         <v>100.84173741760144</v>
@@ -5223,7 +5226,7 @@
         <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E156">
         <v>5.2529935346168033</v>
@@ -5248,13 +5251,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B158" t="s">
         <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D158">
         <v>69</v>
@@ -5271,13 +5274,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
         <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -5291,7 +5294,7 @@
         <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D160">
         <v>33.33</v>
@@ -5314,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D161">
         <v>322.2</v>
@@ -5331,13 +5334,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B162" t="s">
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D162">
         <v>119</v>
@@ -5354,13 +5357,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B163" t="s">
         <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E163">
         <v>39.804818144216824</v>
@@ -5380,7 +5383,7 @@
         <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E164">
         <v>1.6623041356945802</v>
@@ -5397,7 +5400,7 @@
         <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -5414,7 +5417,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B166" t="s">
         <v>2</v>
@@ -5428,7 +5431,7 @@
         <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D167">
         <v>226</v>
@@ -5451,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E168">
         <v>33.556172657747275</v>
@@ -5465,13 +5468,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B169" t="s">
         <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D169">
         <v>2530</v>
@@ -5488,13 +5491,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B170" t="s">
         <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D170">
         <v>18</v>
@@ -5511,7 +5514,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B171" t="s">
         <v>2</v>
@@ -5540,7 +5543,7 @@
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D172">
         <v>47.24</v>
@@ -5557,13 +5560,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B173" t="s">
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D173">
         <v>7</v>
@@ -5580,13 +5583,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B174" t="s">
         <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E174">
         <v>56.27</v>
@@ -5600,13 +5603,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B175" t="s">
         <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D175">
         <v>2040</v>
@@ -5623,13 +5626,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D176">
         <v>190</v>
@@ -5646,13 +5649,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B177" t="s">
         <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -5666,13 +5669,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B178" t="s">
         <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D178">
         <v>440.3</v>
@@ -5689,13 +5692,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D179">
         <v>3338</v>
@@ -5712,13 +5715,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B180" t="s">
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D180">
         <v>440.3</v>
@@ -5735,13 +5738,13 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B181" t="s">
         <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D181">
         <v>26</v>
@@ -5752,7 +5755,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B182" t="s">
         <v>2</v>
@@ -5772,7 +5775,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B183" t="s">
         <v>2</v>
@@ -5801,7 +5804,7 @@
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E184">
         <v>5.2529935346168033</v>
@@ -5815,7 +5818,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
@@ -5826,7 +5829,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
@@ -5849,13 +5852,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D187">
         <v>47.24</v>
@@ -5878,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D188">
         <v>47.24</v>
@@ -5895,13 +5898,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D189">
         <v>47.24</v>
@@ -5924,7 +5927,7 @@
         <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E190">
         <v>161.22124895711178</v>
@@ -5941,7 +5944,7 @@
         <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D191">
         <v>322.2</v>
@@ -5958,13 +5961,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B192" t="s">
         <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E192">
         <v>161.22124895711178</v>
@@ -5978,7 +5981,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B193" t="s">
         <v>2</v>
@@ -5995,7 +5998,7 @@
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D194">
         <v>9</v>
@@ -6018,7 +6021,7 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D195">
         <v>18</v>
@@ -6049,7 +6052,7 @@
         <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E197">
         <v>161.22124895711178</v>
@@ -6063,13 +6066,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B198" t="s">
         <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -6117,13 +6120,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B201" t="s">
         <v>30</v>
       </c>
       <c r="C201" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E201">
         <v>100.79047705176647</v>
@@ -6143,7 +6146,7 @@
         <v>30</v>
       </c>
       <c r="C202" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D202">
         <v>237</v>
@@ -6160,13 +6163,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B203" t="s">
         <v>30</v>
       </c>
       <c r="C203" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D203">
         <v>124.38</v>
@@ -6183,7 +6186,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B204" t="s">
         <v>30</v>
@@ -6209,7 +6212,7 @@
         <v>30</v>
       </c>
       <c r="C205" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -6234,7 +6237,7 @@
         <v>30</v>
       </c>
       <c r="C207" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E207">
         <v>200</v>
@@ -6248,13 +6251,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B208" t="s">
         <v>30</v>
       </c>
       <c r="C208" t="s">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D208">
         <v>31.18</v>
@@ -6277,7 +6280,7 @@
         <v>30</v>
       </c>
       <c r="C209" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D209">
         <v>10</v>
@@ -6294,13 +6297,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B210" t="s">
         <v>30</v>
       </c>
       <c r="C210" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E210">
         <v>200</v>
@@ -6320,7 +6323,7 @@
         <v>30</v>
       </c>
       <c r="C211" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D211">
         <v>630.6</v>
@@ -6337,7 +6340,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B212" t="s">
         <v>30</v>
@@ -6368,13 +6371,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
         <v>30</v>
       </c>
       <c r="C214" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D214">
         <v>42.73</v>
@@ -6391,7 +6394,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B215" t="s">
         <v>30</v>
@@ -6414,13 +6417,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B216" t="s">
         <v>30</v>
       </c>
       <c r="C216" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D216">
         <v>427</v>
@@ -6437,7 +6440,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B217" t="s">
         <v>30</v>
@@ -6460,13 +6463,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B218" t="s">
         <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E218">
         <v>100.79047705176647</v>
@@ -6480,13 +6483,13 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B219" t="s">
         <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D219">
         <v>530</v>

--- a/data/dcp-data.xlsx
+++ b/data/dcp-data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="316">
   <si>
     <t>Tuberculosis</t>
   </si>
@@ -900,9 +900,6 @@
     <t>Screening and management of diabetes in pregnancy (gestational diabetes or preexisting type II diabetes)</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>platform</t>
   </si>
   <si>
@@ -928,6 +925,48 @@
   </si>
   <si>
     <t>HIV/AIDS and tuberculosis</t>
+  </si>
+  <si>
+    <t>shortname</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>IHR assessment</t>
+  </si>
+  <si>
+    <t>Simulation exercises</t>
+  </si>
+  <si>
+    <t>Decentralize antivirals</t>
+  </si>
+  <si>
+    <t>Surge capacity plan</t>
+  </si>
+  <si>
+    <t>Infection control planning</t>
+  </si>
+  <si>
+    <t>Influenza vaccine security</t>
+  </si>
+  <si>
+    <t>Mass media for sexual health</t>
+  </si>
+  <si>
+    <t>Mass media for hand washing</t>
+  </si>
+  <si>
+    <t>Mass media for diet/exercise</t>
+  </si>
+  <si>
+    <t>Mass media for adolescents</t>
+  </si>
+  <si>
+    <t>Mass media for alcohol/tobacco</t>
+  </si>
+  <si>
+    <t>Non-malaria vector management</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2090,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2059,4442 +2098,5100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G219"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="103.375" customWidth="1"/>
-    <col min="2" max="2" width="36.125" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="6.75" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="1" max="1" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="103.375" customWidth="1"/>
+    <col min="3" max="3" width="36.125" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="6.75" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" t="s">
         <v>160</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" t="s">
         <v>242</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" t="s">
         <v>243</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" t="s">
         <v>244</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
         <v>161</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="s">
         <v>247</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>113</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.21691828689811607</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" t="s">
         <v>245</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.2172769190119121</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>132</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>23</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.5130245068262688E-2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" t="s">
         <v>246</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>132</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.5130245068262688E-2</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>128</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>18</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.1373682469786397</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>241</v>
       </c>
       <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>330</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>272.9580220327901</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>196</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15">
+        <v>196</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>4.17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>0.248529494536535</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>132</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>19560</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>101</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>13</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>8.3081131621527771</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
       <c r="G18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>249</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>113</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2400</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18.281984246694059</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>238</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>175</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2.3558327287917193</v>
       </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
       <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>130</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>237.02</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.118814539054747</v>
       </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
       <c r="G21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>133</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>32</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>47.662070827236811</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>4</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>101</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>8.9096486099157115</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>3</v>
       </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>132</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>250</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>128</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>63</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>171.59430847972808</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>5</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>216</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26">
+        <v>216</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>0.21691828689811607</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>117</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2908</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.21691828689811607</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>217</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="C28" t="s">
-        <v>301</v>
-      </c>
-      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>300</v>
+      </c>
+      <c r="F28">
         <v>0.5</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>106</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>95</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>4.2925946792905298</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>3</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>99</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>204</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.63500000000000001</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
       <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>234</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>132</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
       <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
       <c r="G32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>113</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1186</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.248529494536535</v>
       </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
       <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>251</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>113</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1400</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>4.9445642275071053</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>248</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35">
+        <v>248</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>203</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>31</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>31</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>3.0509432572250312</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>3</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>117</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.21691828689811607</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
       <c r="G37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>209</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>93</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2.4124539576553481</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>3</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>210</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>54</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.52964517770802444</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
       <c r="G39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>31</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>49</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.48827628906858322</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
       <c r="G40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>211</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
         <v>31</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>49</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>0.4495242026345686</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
       <c r="G41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>208</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
         <v>31</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>6</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>2.0230000000000001E-2</v>
       </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
       <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>206</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
         <v>31</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>6</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>1.7790273640275014</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
       <c r="G43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>235</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44">
+        <v>235</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>212</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
         <v>31</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>49</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>20.946845798236545</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>3</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>254</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
         <v>132</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
       <c r="G46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>236</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
         <v>129</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.05</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>8.2514989228512476</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>4</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>128</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
       <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
         <v>128</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>11</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>0.4546559785461225</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
       <c r="G50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
         <v>31</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>6</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.80994758485579355</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
       <c r="G51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
         <v>31</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>76</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>0.35823210058869914</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
       <c r="G52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>240</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
         <v>117</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>3.0219082286381651</v>
       </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
       <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>225</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
         <v>101</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>103</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>10.5</v>
       </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
       <c r="G54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>255</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
         <v>132</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
       <c r="G55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>252</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
         <v>133</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>1206</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>0.118814539054747</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
       <c r="G56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>256</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
         <v>132</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
       <c r="G57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
         <v>113</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
       <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>1.7038647869188983</v>
       </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
       <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
         <v>113</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>64</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>80.443131461033275</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>5</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
         <v>134</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>3324</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>5.3019999999999996</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>3</v>
       </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>253</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
         <v>133</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>285</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>5.5264999999999995</v>
       </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
       <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>222</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
         <v>133</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>88</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>2.0609322772375127</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
       <c r="G62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>224</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
         <v>101</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>10.5</v>
       </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
       <c r="G63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>2.1640023560422481</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
       <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>228</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
         <v>96</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>242</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>9.1430085225198408</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
       <c r="G65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>290</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66">
+        <v>290</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66">
         <v>742</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
         <v>126</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>0</v>
       </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>176</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
         <v>148</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>1830</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>0.7</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
       <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
         <v>128</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>324</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>2.8255201523976186</v>
       </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
       <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
         <v>132</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
       <c r="G70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
         <v>132</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
       <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
       <c r="G71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
         <v>142</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>3276</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>0.6</v>
       </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
       <c r="G72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
         <v>106</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>0.41942359295556153</v>
       </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
       <c r="G73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>197</v>
       </c>
       <c r="B74" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" t="s">
         <v>32</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>113</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>64</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>196.47598722309527</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>5</v>
       </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>191</v>
       </c>
       <c r="B75" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" t="s">
         <v>32</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>99</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>4.6867967066306457</v>
       </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
       <c r="G75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>266</v>
       </c>
       <c r="B76" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" t="s">
         <v>32</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>119</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>0.67</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
       <c r="G76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>267</v>
       </c>
       <c r="B77" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" t="s">
         <v>32</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>132</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>5968</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
       <c r="G77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>52</v>
       </c>
       <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" t="s">
         <v>32</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>105</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>7.6419917665766146</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
       <c r="G78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>72</v>
       </c>
       <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
         <v>32</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>107</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>16.122124895711178</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>3</v>
       </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>180</v>
       </c>
       <c r="B80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" t="s">
         <v>32</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>101</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>58</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>8.1317460167989637</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>3</v>
       </c>
-      <c r="G80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
       <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
         <v>32</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>107</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>16.122124895711178</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>3</v>
       </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3</v>
       </c>
       <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
         <v>32</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>95</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>5.29</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>16.122124895711178</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>3</v>
       </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>172</v>
       </c>
       <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" t="s">
         <v>32</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>125</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>36.340000000000003</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>3.8321104472039145</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>3</v>
       </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>183</v>
       </c>
       <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" t="s">
         <v>32</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>64.358947526679671</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>258</v>
       </c>
       <c r="B85" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" t="s">
         <v>32</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>101</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>10.803598959475361</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>3</v>
       </c>
-      <c r="G85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>53</v>
       </c>
       <c r="B86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" t="s">
         <v>32</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>132</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
       <c r="G86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>219</v>
       </c>
       <c r="B87" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" t="s">
         <v>32</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>64.358947526679671</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>259</v>
       </c>
       <c r="B88" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" t="s">
         <v>32</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>101</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>64</v>
       </c>
-      <c r="G88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>199</v>
       </c>
       <c r="B89" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" t="s">
         <v>32</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>112</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>231.3957558791088</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>4</v>
       </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>151</v>
       </c>
       <c r="B90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" t="s">
         <v>32</v>
       </c>
-      <c r="C90" t="s">
-        <v>302</v>
-      </c>
-      <c r="D90">
+      <c r="D90" t="s">
+        <v>301</v>
+      </c>
+      <c r="E90">
         <v>2626</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>73.145665077899338</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>5</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>45</v>
       </c>
       <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" t="s">
         <v>32</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>0.33678664645906475</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>260</v>
       </c>
       <c r="B92" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" t="s">
         <v>32</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>112</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>9.2458293766477926</v>
       </c>
-      <c r="F92">
-        <v>2</v>
-      </c>
       <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>257</v>
       </c>
       <c r="B93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" t="s">
         <v>32</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>27</v>
       </c>
       <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" t="s">
         <v>32</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>86</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>13.431505823786758</v>
       </c>
-      <c r="F94">
-        <v>2</v>
-      </c>
       <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>185</v>
       </c>
       <c r="B95" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" t="s">
         <v>32</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>93</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>19.220474619863193</v>
       </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
       <c r="G95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>194</v>
       </c>
       <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="s">
         <v>32</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>88</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>1100</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>50.993475299729845</v>
       </c>
-      <c r="F96">
-        <v>2</v>
-      </c>
       <c r="G96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>232</v>
       </c>
       <c r="B97" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" t="s">
         <v>32</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>90</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>1499</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>153.27000000000001</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>4</v>
       </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>21</v>
       </c>
       <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" t="s">
         <v>32</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>117</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>1.1635440671162765E-2</v>
       </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
       <c r="G98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>79</v>
       </c>
       <c r="B99" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" t="s">
         <v>32</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>103</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>437</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>13.379999999999999</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>3</v>
       </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>268</v>
       </c>
       <c r="B100" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" t="s">
         <v>32</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>108</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>115</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>22.86</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>4</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>261</v>
       </c>
       <c r="B101" t="s">
+        <v>261</v>
+      </c>
+      <c r="C101" t="s">
         <v>32</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>122</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>147</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>81.752040520855701</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>6</v>
       </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>262</v>
       </c>
       <c r="B102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" t="s">
         <v>32</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>121</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>9.6124698474463486</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>4</v>
       </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>4</v>
       </c>
       <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
         <v>32</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>116</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>16.122124895711178</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>4</v>
       </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>170</v>
       </c>
       <c r="B104" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" t="s">
         <v>32</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>130</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>1675</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>3.1742986146488623</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>3</v>
       </c>
-      <c r="G104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>226</v>
       </c>
       <c r="B105" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" t="s">
         <v>32</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>145</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>1499</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>82.57</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>4</v>
       </c>
-      <c r="G105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>184</v>
       </c>
       <c r="B106" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" t="s">
         <v>32</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>93</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>4393</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>1.4797812679861231</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>0</v>
       </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>195</v>
       </c>
       <c r="B107" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107" t="s">
         <v>32</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>146</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>3560</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>2.923101510025103</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>3</v>
       </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>40</v>
       </c>
       <c r="B108" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" t="s">
         <v>32</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>113</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>9</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>254.60902660160465</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>5</v>
       </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>270</v>
       </c>
       <c r="B109" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" t="s">
         <v>32</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>117</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>2908</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>2.8939906360520209</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>3</v>
       </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>198</v>
       </c>
       <c r="B110" t="s">
+        <v>198</v>
+      </c>
+      <c r="C110" t="s">
         <v>32</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>113</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>12680</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>131.71779696347781</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>5</v>
       </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>263</v>
       </c>
       <c r="B111" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" t="s">
         <v>32</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>113</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>17</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>5.0067137408726454</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>3</v>
       </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>187</v>
       </c>
       <c r="B112" t="s">
+        <v>187</v>
+      </c>
+      <c r="C112" t="s">
         <v>32</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>118</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>2.675764110756124E-2</v>
       </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
       <c r="G112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>49</v>
       </c>
       <c r="B113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" t="s">
         <v>32</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>3.9155617804681011</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>205</v>
       </c>
       <c r="B114" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114" t="s">
         <v>32</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>31</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>27</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>6.1816122110580389</v>
       </c>
-      <c r="F114">
-        <v>2</v>
-      </c>
       <c r="G114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>265</v>
       </c>
       <c r="B115" t="s">
+        <v>265</v>
+      </c>
+      <c r="C115" t="s">
         <v>32</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>113</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>3.16</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>32.674754216549147</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>4</v>
       </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>269</v>
       </c>
       <c r="B116" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" t="s">
         <v>32</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>89</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>11484</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>35.44</v>
       </c>
-      <c r="F116">
-        <v>2</v>
-      </c>
       <c r="G116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>218</v>
       </c>
       <c r="B117" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" t="s">
         <v>32</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>64.358947526679671</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
       <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
         <v>32</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>116</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>16.122124895711178</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>59</v>
       </c>
       <c r="B119" t="s">
+        <v>59</v>
+      </c>
+      <c r="C119" t="s">
         <v>32</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>132</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
       <c r="G119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>82</v>
       </c>
       <c r="B120" t="s">
+        <v>82</v>
+      </c>
+      <c r="C120" t="s">
         <v>32</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>85</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>832</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>3.61</v>
       </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
       <c r="G120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>189</v>
       </c>
       <c r="B121" t="s">
+        <v>189</v>
+      </c>
+      <c r="C121" t="s">
         <v>32</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>97</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>4813</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>41.05698281732284</v>
       </c>
-      <c r="F121">
-        <v>2</v>
-      </c>
       <c r="G121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>190</v>
       </c>
       <c r="B122" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122" t="s">
         <v>32</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>104</v>
       </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
       <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
         <v>73.615185505463486</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>3</v>
       </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>292</v>
       </c>
       <c r="B123" t="s">
+        <v>292</v>
+      </c>
+      <c r="C123" t="s">
         <v>32</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>102</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>72799</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>8.8451659255067661</v>
       </c>
-      <c r="F123">
-        <v>2</v>
-      </c>
       <c r="G123">
+        <v>2</v>
+      </c>
+      <c r="H123">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>201</v>
       </c>
       <c r="B124" t="s">
+        <v>201</v>
+      </c>
+      <c r="C124" t="s">
         <v>32</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>114</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>2301</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>13.020616039822261</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
       </c>
       <c r="G124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>153</v>
       </c>
       <c r="B125" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" t="s">
         <v>32</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>143</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>0.12884216254510045</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>0</v>
       </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>162</v>
       </c>
       <c r="B126" t="s">
+        <v>162</v>
+      </c>
+      <c r="C126" t="s">
         <v>32</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>6</v>
       </c>
       <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
         <v>32</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>116</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>16.122124895711178</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>4</v>
       </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>264</v>
       </c>
       <c r="B128" t="s">
+        <v>264</v>
+      </c>
+      <c r="C128" t="s">
         <v>32</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>146</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>62.55</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>2.8590157106456027</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>3</v>
       </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>51</v>
       </c>
       <c r="B129" t="s">
+        <v>51</v>
+      </c>
+      <c r="C129" t="s">
         <v>32</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>135</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>4898</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>30.843021994351353</v>
-      </c>
-      <c r="F129">
-        <v>3</v>
       </c>
       <c r="G129">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>28</v>
       </c>
       <c r="B130" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" t="s">
         <v>32</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>132</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>96</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>11.087821949862175</v>
       </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
       <c r="G130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>67</v>
       </c>
       <c r="B131" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" t="s">
         <v>32</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>143</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>12</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>0.12884216254510045</v>
       </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
       <c r="G131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
       <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
         <v>32</v>
       </c>
-      <c r="C132" t="s">
-        <v>301</v>
-      </c>
-      <c r="E132">
+      <c r="D132" t="s">
+        <v>300</v>
+      </c>
+      <c r="F132">
         <v>16.122124895711178</v>
       </c>
-      <c r="F132">
-        <v>2</v>
-      </c>
       <c r="G132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>173</v>
       </c>
       <c r="B133" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133" t="s">
         <v>171</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>130</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>237</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>2.3797644691069815</v>
-      </c>
-      <c r="F133">
-        <v>3</v>
       </c>
       <c r="G133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>152</v>
       </c>
       <c r="B134" t="s">
+        <v>152</v>
+      </c>
+      <c r="C134" t="s">
         <v>171</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>0</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>1032</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>111.26</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>4</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>186</v>
       </c>
       <c r="B135" t="s">
+        <v>186</v>
+      </c>
+      <c r="C135" t="s">
         <v>171</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>93</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>64.39489403018591</v>
       </c>
-      <c r="F135">
-        <v>2</v>
-      </c>
       <c r="G135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>272</v>
       </c>
       <c r="B136" t="s">
+        <v>272</v>
+      </c>
+      <c r="C136" t="s">
         <v>171</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>131</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>5488</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>2.0885911092222216</v>
-      </c>
-      <c r="F136">
-        <v>3</v>
       </c>
       <c r="G136">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>188</v>
       </c>
       <c r="B137" t="s">
+        <v>188</v>
+      </c>
+      <c r="C137" t="s">
         <v>171</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>92</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>172</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>244.39936583785567</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>4</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>34</v>
       </c>
       <c r="B138" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" t="s">
         <v>171</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>96</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>681</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>3.6837913810802321</v>
       </c>
-      <c r="F138">
-        <v>2</v>
-      </c>
       <c r="G138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>230</v>
       </c>
       <c r="B139" t="s">
+        <v>230</v>
+      </c>
+      <c r="C139" t="s">
         <v>171</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>3.7862030200502059</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>227</v>
       </c>
       <c r="B140" t="s">
+        <v>227</v>
+      </c>
+      <c r="C140" t="s">
         <v>171</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>124</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>72799</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>1.0838059076525397</v>
       </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
       <c r="G140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>273</v>
       </c>
       <c r="B141" t="s">
+        <v>273</v>
+      </c>
+      <c r="C141" t="s">
         <v>171</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>114</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>1089</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>1.6933568648852475</v>
       </c>
-      <c r="F141">
-        <v>2</v>
-      </c>
       <c r="G141">
+        <v>2</v>
+      </c>
+      <c r="H141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
         <v>87</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>5</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>161.22124895711178</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>6</v>
       </c>
-      <c r="G142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>64</v>
       </c>
       <c r="B143" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
         <v>132</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>7163</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
       <c r="G143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>165</v>
       </c>
       <c r="B144" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
         <v>122</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>322.2</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>161.22124895711178</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>6</v>
       </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>237</v>
       </c>
       <c r="B145" t="s">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
         <v>109</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>60</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>161.22124895711178</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>4</v>
       </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>73</v>
       </c>
       <c r="B146" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
         <v>150</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>93.432191942566149</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>5</v>
       </c>
-      <c r="G146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>54</v>
       </c>
       <c r="B147" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
         <v>105</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>8.7369002659035608</v>
       </c>
-      <c r="F147">
-        <v>1</v>
-      </c>
       <c r="G147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
         <v>138</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>47.24</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>161.22124895711178</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>5</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>55</v>
       </c>
       <c r="B149" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
         <v>144</v>
       </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
       <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
         <v>82.547902033943757</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>4</v>
       </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>63</v>
       </c>
       <c r="B150" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
         <v>132</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
       <c r="G150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>23</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
         <v>129</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>231.27734299174813</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>5</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>168</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
         <v>96</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>35.577304550758463</v>
       </c>
-      <c r="F152">
-        <v>2</v>
-      </c>
       <c r="G152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>282</v>
       </c>
       <c r="B153" t="s">
-        <v>2</v>
+        <v>282</v>
       </c>
       <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
         <v>116</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>93.432191942566149</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>5</v>
       </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>61</v>
       </c>
       <c r="B154" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
         <v>132</v>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F154">
-        <v>2</v>
-      </c>
       <c r="G154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>274</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>274</v>
       </c>
       <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
         <v>101</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>100.84173741760144</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>5</v>
       </c>
-      <c r="G155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
         <v>132</v>
       </c>
-      <c r="E156">
+      <c r="F156">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
       <c r="G156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>46</v>
       </c>
       <c r="B157" t="s">
-        <v>2</v>
-      </c>
-      <c r="E157">
+        <v>46</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="F157">
         <v>0.52436208073605961</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>283</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>283</v>
       </c>
       <c r="C158" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
         <v>116</v>
       </c>
-      <c r="D158">
+      <c r="E158">
         <v>69</v>
       </c>
-      <c r="E158">
+      <c r="F158">
         <v>161.22124895711178</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>5</v>
       </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
         <v>101</v>
       </c>
-      <c r="G159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>76</v>
       </c>
       <c r="B160" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
         <v>115</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <v>33.33</v>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>161.22124895711178</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>4</v>
       </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
         <v>123</v>
       </c>
-      <c r="D161">
+      <c r="E161">
         <v>322.2</v>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>161.22124895711178</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>5</v>
       </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>233</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="C162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
         <v>147</v>
       </c>
-      <c r="D162">
+      <c r="E162">
         <v>119</v>
       </c>
-      <c r="E162">
+      <c r="F162">
         <v>4.3740045081721641</v>
       </c>
-      <c r="F162">
-        <v>2</v>
-      </c>
       <c r="G162">
+        <v>2</v>
+      </c>
+      <c r="H162">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>279</v>
       </c>
       <c r="B163" t="s">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="C163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
         <v>135</v>
       </c>
-      <c r="E163">
+      <c r="F163">
         <v>39.804818144216824</v>
-      </c>
-      <c r="F163">
-        <v>3</v>
       </c>
       <c r="G163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>24</v>
       </c>
       <c r="B164" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
         <v>136</v>
       </c>
-      <c r="E164">
+      <c r="F164">
         <v>1.6623041356945802</v>
       </c>
-      <c r="F164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>65</v>
       </c>
       <c r="B165" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C165" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
         <v>132</v>
       </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
       <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F165">
-        <v>2</v>
-      </c>
       <c r="G165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>229</v>
       </c>
       <c r="B166" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
         <v>116</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <v>226</v>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>161.22124895711178</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>5</v>
       </c>
-      <c r="G167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>70</v>
       </c>
       <c r="B168" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C168" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
         <v>111</v>
       </c>
-      <c r="E168">
+      <c r="F168">
         <v>33.556172657747275</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>5</v>
       </c>
-      <c r="G168">
+      <c r="H168">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>192</v>
       </c>
       <c r="B169" t="s">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="C169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
         <v>118</v>
       </c>
-      <c r="D169">
+      <c r="E169">
         <v>2530</v>
       </c>
-      <c r="E169">
+      <c r="F169">
         <v>451.40943607930217</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>4</v>
       </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>193</v>
       </c>
       <c r="B170" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="C170" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s">
         <v>140</v>
       </c>
-      <c r="D170">
+      <c r="E170">
         <v>18</v>
       </c>
-      <c r="E170">
+      <c r="F170">
         <v>552.21103030663323</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>4</v>
       </c>
-      <c r="G170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>155</v>
       </c>
       <c r="B171" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
         <v>98</v>
       </c>
-      <c r="D171">
+      <c r="E171">
         <v>5488</v>
       </c>
-      <c r="E171">
+      <c r="F171">
         <v>106.15677779056554</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>4</v>
       </c>
-      <c r="G171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>71</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
         <v>138</v>
       </c>
-      <c r="D172">
+      <c r="E172">
         <v>47.24</v>
       </c>
-      <c r="E172">
+      <c r="F172">
         <v>161.22124895711178</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>5</v>
       </c>
-      <c r="G172">
+      <c r="H172">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>271</v>
       </c>
       <c r="B173" t="s">
-        <v>2</v>
+        <v>271</v>
       </c>
       <c r="C173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
         <v>122</v>
       </c>
-      <c r="D173">
+      <c r="E173">
         <v>7</v>
       </c>
-      <c r="E173">
+      <c r="F173">
         <v>39.892313689077326</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>5</v>
       </c>
-      <c r="G173">
+      <c r="H173">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>291</v>
       </c>
       <c r="B174" t="s">
-        <v>2</v>
+        <v>291</v>
       </c>
       <c r="C174" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" t="s">
         <v>141</v>
       </c>
-      <c r="E174">
+      <c r="F174">
         <v>56.27</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>5</v>
       </c>
-      <c r="G174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>275</v>
       </c>
       <c r="B175" t="s">
-        <v>2</v>
+        <v>275</v>
       </c>
       <c r="C175" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
         <v>122</v>
       </c>
-      <c r="D175">
+      <c r="E175">
         <v>2040</v>
       </c>
-      <c r="E175">
+      <c r="F175">
         <v>242.66493044089697</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>6</v>
       </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="C176" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" t="s">
         <v>125</v>
       </c>
-      <c r="D176">
+      <c r="E176">
         <v>190</v>
       </c>
-      <c r="E176">
+      <c r="F176">
         <v>67.20102998995668</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>4</v>
       </c>
-      <c r="G176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
         <v>129</v>
       </c>
-      <c r="E177">
+      <c r="F177">
         <v>0</v>
-      </c>
-      <c r="F177">
-        <v>3</v>
       </c>
       <c r="G177">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>221</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
         <v>101</v>
       </c>
-      <c r="D178">
+      <c r="E178">
         <v>440.3</v>
       </c>
-      <c r="E178">
+      <c r="F178">
         <v>161.22124895711178</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>5</v>
       </c>
-      <c r="G178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>277</v>
       </c>
       <c r="B179" t="s">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="C179" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
         <v>130</v>
       </c>
-      <c r="D179">
+      <c r="E179">
         <v>3338</v>
       </c>
-      <c r="E179">
+      <c r="F179">
         <v>26.923059640233603</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>4</v>
       </c>
-      <c r="G179">
+      <c r="H179">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>164</v>
       </c>
       <c r="B180" t="s">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="C180" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" t="s">
         <v>101</v>
       </c>
-      <c r="D180">
+      <c r="E180">
         <v>440.3</v>
       </c>
-      <c r="E180">
+      <c r="F180">
         <v>161.22124895711178</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>5</v>
       </c>
-      <c r="G180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
       <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
         <v>133</v>
       </c>
-      <c r="D181">
+      <c r="E181">
         <v>26</v>
       </c>
-      <c r="G181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>276</v>
       </c>
       <c r="B182" t="s">
-        <v>2</v>
+        <v>276</v>
       </c>
       <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
         <v>31</v>
       </c>
-      <c r="E182">
+      <c r="F182">
         <v>31.904827005966556</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>4</v>
       </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>154</v>
       </c>
       <c r="B183" t="s">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
         <v>92</v>
       </c>
-      <c r="D183">
+      <c r="E183">
         <v>13</v>
       </c>
-      <c r="E183">
+      <c r="F183">
         <v>648.16097876466279</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>5</v>
       </c>
-      <c r="G183">
+      <c r="H183">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>60</v>
       </c>
       <c r="B184" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
         <v>132</v>
       </c>
-      <c r="E184">
+      <c r="F184">
         <v>5.2529935346168033</v>
       </c>
-      <c r="F184">
-        <v>2</v>
-      </c>
       <c r="G184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>220</v>
       </c>
       <c r="B185" t="s">
-        <v>2</v>
-      </c>
-      <c r="E185">
+        <v>220</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="F185">
         <v>64.358947526679671</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>278</v>
       </c>
       <c r="B186" t="s">
-        <v>2</v>
+        <v>278</v>
       </c>
       <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
         <v>0</v>
       </c>
-      <c r="D186">
+      <c r="E186">
         <v>17</v>
       </c>
-      <c r="E186">
+      <c r="F186">
         <v>2836.9473133809042</v>
       </c>
-      <c r="F186">
+      <c r="G186">
         <v>4</v>
       </c>
-      <c r="G186">
+      <c r="H186">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>163</v>
       </c>
       <c r="B187" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="C187" t="s">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
         <v>137</v>
       </c>
-      <c r="D187">
+      <c r="E187">
         <v>47.24</v>
       </c>
-      <c r="E187">
+      <c r="F187">
         <v>161.22124895711178</v>
       </c>
-      <c r="F187">
+      <c r="G187">
         <v>4</v>
       </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>77</v>
       </c>
       <c r="B188" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
         <v>110</v>
       </c>
-      <c r="D188">
+      <c r="E188">
         <v>47.24</v>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>93.432191942566149</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>4</v>
       </c>
-      <c r="G188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>280</v>
       </c>
       <c r="B189" t="s">
-        <v>2</v>
+        <v>280</v>
       </c>
       <c r="C189" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
         <v>139</v>
       </c>
-      <c r="D189">
+      <c r="E189">
         <v>47.24</v>
       </c>
-      <c r="E189">
+      <c r="F189">
         <v>161.22124895711178</v>
       </c>
-      <c r="F189">
+      <c r="G189">
         <v>4</v>
       </c>
-      <c r="G189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s">
         <v>116</v>
       </c>
-      <c r="E190">
+      <c r="F190">
         <v>161.22124895711178</v>
       </c>
-      <c r="F190">
+      <c r="G190">
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>75</v>
       </c>
       <c r="B191" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
         <v>121</v>
       </c>
-      <c r="D191">
+      <c r="E191">
         <v>322.2</v>
       </c>
-      <c r="E191">
+      <c r="F191">
         <v>161.22124895711178</v>
       </c>
-      <c r="F191">
+      <c r="G191">
         <v>6</v>
       </c>
-      <c r="G191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>215</v>
       </c>
       <c r="B192" t="s">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s">
         <v>120</v>
       </c>
-      <c r="E192">
+      <c r="F192">
         <v>161.22124895711178</v>
       </c>
-      <c r="F192">
+      <c r="G192">
         <v>4</v>
       </c>
-      <c r="G192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>231</v>
       </c>
       <c r="B193" t="s">
-        <v>2</v>
-      </c>
-      <c r="E193">
+        <v>231</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="F193">
         <v>161.22124895711178</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>13</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
         <v>116</v>
       </c>
-      <c r="D194">
+      <c r="E194">
         <v>9</v>
       </c>
-      <c r="E194">
+      <c r="F194">
         <v>161.22124895711178</v>
       </c>
-      <c r="F194">
+      <c r="G194">
         <v>5</v>
       </c>
-      <c r="G194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
         <v>116</v>
       </c>
-      <c r="D195">
+      <c r="E195">
         <v>18</v>
       </c>
-      <c r="E195">
+      <c r="F195">
         <v>161.22124895711178</v>
       </c>
-      <c r="F195">
+      <c r="G195">
         <v>5</v>
       </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>16</v>
       </c>
       <c r="B196" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>74</v>
       </c>
       <c r="B197" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="C197" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
         <v>116</v>
       </c>
-      <c r="E197">
+      <c r="F197">
         <v>161.22124895711178</v>
       </c>
-      <c r="F197">
+      <c r="G197">
         <v>5</v>
       </c>
-      <c r="G197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>281</v>
       </c>
       <c r="B198" t="s">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="C198" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
         <v>135</v>
       </c>
-      <c r="D198">
-        <v>1</v>
-      </c>
       <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
         <v>556.00268914420349</v>
       </c>
-      <c r="F198">
+      <c r="G198">
         <v>4</v>
       </c>
-      <c r="G198">
+      <c r="H198">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>17</v>
       </c>
       <c r="B199" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>20</v>
       </c>
       <c r="B200" t="s">
+        <v>20</v>
+      </c>
+      <c r="C200" t="s">
         <v>30</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>94</v>
       </c>
-      <c r="D200">
+      <c r="E200">
         <v>20.49</v>
       </c>
-      <c r="E200">
+      <c r="F200">
         <v>200</v>
       </c>
-      <c r="F200">
+      <c r="G200">
         <v>3</v>
       </c>
-      <c r="G200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>284</v>
       </c>
       <c r="B201" t="s">
+        <v>284</v>
+      </c>
+      <c r="C201" t="s">
         <v>30</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>127</v>
       </c>
-      <c r="E201">
+      <c r="F201">
         <v>100.79047705176647</v>
       </c>
-      <c r="F201">
+      <c r="G201">
         <v>4</v>
       </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>22</v>
       </c>
       <c r="B202" t="s">
+        <v>22</v>
+      </c>
+      <c r="C202" t="s">
         <v>30</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>129</v>
       </c>
-      <c r="D202">
+      <c r="E202">
         <v>237</v>
       </c>
-      <c r="E202">
+      <c r="F202">
         <v>80.319051204101015</v>
       </c>
-      <c r="F202">
+      <c r="G202">
         <v>6</v>
       </c>
-      <c r="G202">
+      <c r="H202">
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>285</v>
       </c>
       <c r="B203" t="s">
+        <v>285</v>
+      </c>
+      <c r="C203" t="s">
         <v>30</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>102</v>
       </c>
-      <c r="D203">
+      <c r="E203">
         <v>124.38</v>
       </c>
-      <c r="E203">
+      <c r="F203">
         <v>200</v>
       </c>
-      <c r="F203">
+      <c r="G203">
         <v>4</v>
       </c>
-      <c r="G203">
+      <c r="H203">
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>157</v>
       </c>
       <c r="B204" t="s">
+        <v>157</v>
+      </c>
+      <c r="C204" t="s">
         <v>30</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>99</v>
       </c>
-      <c r="E204">
+      <c r="F204">
         <v>217.8898459511226</v>
       </c>
-      <c r="F204">
+      <c r="G204">
         <v>4</v>
       </c>
-      <c r="G204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>42</v>
       </c>
       <c r="B205" t="s">
+        <v>42</v>
+      </c>
+      <c r="C205" t="s">
         <v>30</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>101</v>
       </c>
-      <c r="G205">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>47</v>
       </c>
       <c r="B206" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" t="s">
         <v>30</v>
       </c>
-      <c r="E206">
+      <c r="F206">
         <v>3.1737215953354062E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>18</v>
       </c>
       <c r="B207" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" t="s">
         <v>30</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>102</v>
       </c>
-      <c r="E207">
+      <c r="F207">
         <v>200</v>
       </c>
-      <c r="F207">
+      <c r="G207">
         <v>4</v>
       </c>
-      <c r="G207">
+      <c r="H207">
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>166</v>
       </c>
       <c r="B208" t="s">
+        <v>166</v>
+      </c>
+      <c r="C208" t="s">
         <v>30</v>
       </c>
-      <c r="C208" t="s">
-        <v>300</v>
-      </c>
-      <c r="D208">
+      <c r="D208" t="s">
+        <v>299</v>
+      </c>
+      <c r="E208">
         <v>31.18</v>
       </c>
-      <c r="E208">
+      <c r="F208">
         <v>200</v>
       </c>
-      <c r="F208">
+      <c r="G208">
         <v>4</v>
       </c>
-      <c r="G208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>19</v>
       </c>
       <c r="B209" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209" t="s">
         <v>30</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>135</v>
       </c>
-      <c r="D209">
+      <c r="E209">
         <v>10</v>
       </c>
-      <c r="E209">
+      <c r="F209">
         <v>200</v>
       </c>
-      <c r="F209">
+      <c r="G209">
         <v>4</v>
       </c>
-      <c r="G209">
+      <c r="H209">
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>167</v>
       </c>
       <c r="B210" t="s">
+        <v>167</v>
+      </c>
+      <c r="C210" t="s">
         <v>30</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>122</v>
       </c>
-      <c r="E210">
+      <c r="F210">
         <v>200</v>
       </c>
-      <c r="F210">
+      <c r="G210">
         <v>5</v>
       </c>
-      <c r="G210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>29</v>
       </c>
       <c r="B211" t="s">
+        <v>29</v>
+      </c>
+      <c r="C211" t="s">
         <v>30</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>104</v>
       </c>
-      <c r="D211">
+      <c r="E211">
         <v>630.6</v>
       </c>
-      <c r="E211">
+      <c r="F211">
         <v>12.527234689481087</v>
       </c>
-      <c r="F211">
-        <v>1</v>
-      </c>
       <c r="G211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>202</v>
       </c>
       <c r="B212" t="s">
+        <v>202</v>
+      </c>
+      <c r="C212" t="s">
         <v>30</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>0</v>
       </c>
-      <c r="E212">
+      <c r="F212">
         <v>1864.30255997415</v>
       </c>
-      <c r="F212">
+      <c r="G212">
         <v>4</v>
       </c>
-      <c r="G212">
+      <c r="H212">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>48</v>
       </c>
       <c r="B213" t="s">
+        <v>48</v>
+      </c>
+      <c r="C213" t="s">
         <v>30</v>
       </c>
-      <c r="E213">
+      <c r="F213">
         <v>3.1737215953354062E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>214</v>
       </c>
       <c r="B214" t="s">
+        <v>214</v>
+      </c>
+      <c r="C214" t="s">
         <v>30</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>149</v>
       </c>
-      <c r="D214">
+      <c r="E214">
         <v>42.73</v>
       </c>
-      <c r="E214">
+      <c r="F214">
         <v>200</v>
       </c>
-      <c r="F214">
+      <c r="G214">
         <v>3</v>
       </c>
-      <c r="G214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>286</v>
       </c>
       <c r="B215" t="s">
+        <v>286</v>
+      </c>
+      <c r="C215" t="s">
         <v>30</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>91</v>
       </c>
-      <c r="D215">
+      <c r="E215">
         <v>230</v>
       </c>
-      <c r="E215">
+      <c r="F215">
         <v>129.854341510739</v>
       </c>
-      <c r="F215">
+      <c r="G215">
         <v>4</v>
       </c>
-      <c r="G215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>287</v>
       </c>
       <c r="B216" t="s">
+        <v>287</v>
+      </c>
+      <c r="C216" t="s">
         <v>30</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>100</v>
       </c>
-      <c r="D216">
+      <c r="E216">
         <v>427</v>
       </c>
-      <c r="E216">
+      <c r="F216">
         <v>688.50801270442935</v>
       </c>
-      <c r="F216">
+      <c r="G216">
         <v>5</v>
       </c>
-      <c r="G216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>288</v>
       </c>
       <c r="B217" t="s">
+        <v>288</v>
+      </c>
+      <c r="C217" t="s">
         <v>30</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>84</v>
       </c>
-      <c r="D217">
+      <c r="E217">
         <v>1539</v>
       </c>
-      <c r="E217">
+      <c r="F217">
         <v>2459.96135682262</v>
       </c>
-      <c r="F217">
+      <c r="G217">
         <v>5</v>
       </c>
-      <c r="G217">
+      <c r="H217">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>289</v>
       </c>
       <c r="B218" t="s">
+        <v>289</v>
+      </c>
+      <c r="C218" t="s">
         <v>30</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>116</v>
       </c>
-      <c r="E218">
+      <c r="F218">
         <v>100.79047705176647</v>
       </c>
-      <c r="F218">
+      <c r="G218">
         <v>5</v>
       </c>
-      <c r="G218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>156</v>
       </c>
       <c r="B219" t="s">
+        <v>156</v>
+      </c>
+      <c r="C219" t="s">
         <v>30</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>118</v>
       </c>
-      <c r="D219">
+      <c r="E219">
         <v>530</v>
       </c>
-      <c r="G219">
+      <c r="H219">
         <v>1</v>
       </c>
     </row>

--- a/data/dcp-data.xlsx
+++ b/data/dcp-data.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerard/Dropbox/Optima UHC/DCP3/HealthPrior DCP3 databook/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="144525" calcMode="manual"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="484">
   <si>
     <t>Tuberculosis</t>
   </si>
@@ -216,9 +224,6 @@
     <t xml:space="preserve">Assessment, provision and training in the use of assistive products, including assistive devices for hearing </t>
   </si>
   <si>
-    <t xml:space="preserve">Initial  assessment, and prescription, and provision of individualized interventions for musculoskeletal, cardiopulmonary,  neurological, speech and communication, and cognitive deficits, including training in preparation for discharge </t>
-  </si>
-  <si>
     <t>HIV education and counseling for pregnant women, sex workers, people who inject drugs, men who have sex with men, and transgender individuals, and PLHIV and their partners</t>
   </si>
   <si>
@@ -967,12 +972,519 @@
   </si>
   <si>
     <t>Non-malaria vector management</t>
+  </si>
+  <si>
+    <t>Cardiac and pulmonary rehabilitation</t>
+  </si>
+  <si>
+    <t>Childhood vaccination series</t>
+  </si>
+  <si>
+    <t>HIV education and counseling</t>
+  </si>
+  <si>
+    <t>Identify and refer patients with high risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevention of FGM </t>
+  </si>
+  <si>
+    <t>Indoor residual spraying</t>
+  </si>
+  <si>
+    <t>Case detection strategies for malaria</t>
+  </si>
+  <si>
+    <t>Seasonal malaria chemoprophylaxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individualized environmental modifications </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life skills training in schools </t>
+  </si>
+  <si>
+    <t>Parent training for high-risk families</t>
+  </si>
+  <si>
+    <t>Interventions for wheelchair users</t>
+  </si>
+  <si>
+    <t>WASH behavior change interventions</t>
+  </si>
+  <si>
+    <t>Flu and pneumococcal vaccinations</t>
+  </si>
+  <si>
+    <t>Integrated management of childhood illness</t>
+  </si>
+  <si>
+    <t>Treatment of neonatal pneumonia</t>
+  </si>
+  <si>
+    <t>Isoniazid Preventative Therapy for TB</t>
+  </si>
+  <si>
+    <t>Hepatitis B and C testing and referral</t>
+  </si>
+  <si>
+    <t>Opportunistic screening for hypertension</t>
+  </si>
+  <si>
+    <t>Post gender-based violence care</t>
+  </si>
+  <si>
+    <t>PrEP for individuals at high risk of infection</t>
+  </si>
+  <si>
+    <t>Review of prosthetics, orthotics, and splints</t>
+  </si>
+  <si>
+    <t>Tobacco cessation counseling</t>
+  </si>
+  <si>
+    <t>Counseling on kangaroo care for newborns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnosis of TB and first-line treatment </t>
+  </si>
+  <si>
+    <t>Medical management of heart failure</t>
+  </si>
+  <si>
+    <t>Assisted vaginal delivery</t>
+  </si>
+  <si>
+    <t>Burr hole</t>
+  </si>
+  <si>
+    <t>Hysterectomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial assessment, and prescription, and provision of individualized interventions for musculoskeletal, cardiopulmonary,  neurological, speech and communication, and cognitive deficits, including training in preparation for discharge </t>
+  </si>
+  <si>
+    <t>Management of acute coronary syndromes</t>
+  </si>
+  <si>
+    <t>Referral for DST and MDR-TB treatment</t>
+  </si>
+  <si>
+    <t>Relief of urinary obstruction</t>
+  </si>
+  <si>
+    <t>Removal of gallbladder</t>
+  </si>
+  <si>
+    <t>Repair of perforations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgical termination of pregnancy </t>
+  </si>
+  <si>
+    <t>Specialized TB services</t>
+  </si>
+  <si>
+    <t>Treatment of early stage breast cancer</t>
+  </si>
+  <si>
+    <t>Treatment of early stage colorectal cancer</t>
+  </si>
+  <si>
+    <t>Treatment of early-stage childhood cancers</t>
+  </si>
+  <si>
+    <t>Antenatal and postpartum education</t>
+  </si>
+  <si>
+    <t>Community-based HIV services</t>
+  </si>
+  <si>
+    <t>ECD rehabilitation interventions</t>
+  </si>
+  <si>
+    <t>Identification of lead poisoning</t>
+  </si>
+  <si>
+    <t>Education campaigns on GBV</t>
+  </si>
+  <si>
+    <t>Education on hygiene</t>
+  </si>
+  <si>
+    <t>Exercise-based pulmonary rehabilitation</t>
+  </si>
+  <si>
+    <t>Test for G6PD deficiency</t>
+  </si>
+  <si>
+    <t>Self-care interventions for disabilities</t>
+  </si>
+  <si>
+    <t>Household HIV testing and counseling</t>
+  </si>
+  <si>
+    <t>Diagnosis of and treatment of malaria</t>
+  </si>
+  <si>
+    <t>Presumptive treatment of febrile illness</t>
+  </si>
+  <si>
+    <t>IPT for malaria in pregnancy</t>
+  </si>
+  <si>
+    <t>IPT for malaria in infancy</t>
+  </si>
+  <si>
+    <t>Primaquine first-line malaria treatment</t>
+  </si>
+  <si>
+    <t>Low-risk labor and delivery</t>
+  </si>
+  <si>
+    <t>Mass drug administration (malaria)</t>
+  </si>
+  <si>
+    <t>Promotion of breastfeeding</t>
+  </si>
+  <si>
+    <t>Basic assistive products</t>
+  </si>
+  <si>
+    <t>Cotrimoxazole for children</t>
+  </si>
+  <si>
+    <t>Harm reduction services for PWID</t>
+  </si>
+  <si>
+    <t>Iron and folic acid for pregnant women</t>
+  </si>
+  <si>
+    <t>Vitamin A and zinc for children</t>
+  </si>
+  <si>
+    <t>TB contact tracing</t>
+  </si>
+  <si>
+    <t>School-based education on health</t>
+  </si>
+  <si>
+    <t>Tetanus toxoid immunization</t>
+  </si>
+  <si>
+    <t>Treatment for yaws</t>
+  </si>
+  <si>
+    <t>Training, retraining, and exercise programs</t>
+  </si>
+  <si>
+    <t>Vision prescreening, tests and glasses</t>
+  </si>
+  <si>
+    <t>ART care for PLHIV</t>
+  </si>
+  <si>
+    <t>Hepatitis B vaccination</t>
+  </si>
+  <si>
+    <t>Early detection and treatment of NTDs</t>
+  </si>
+  <si>
+    <t>Guidance during infectious outbreak</t>
+  </si>
+  <si>
+    <t>Training and retraining for speech</t>
+  </si>
+  <si>
+    <t>Essential palliative care</t>
+  </si>
+  <si>
+    <t>Exercise programs</t>
+  </si>
+  <si>
+    <t>Expanded palliative care</t>
+  </si>
+  <si>
+    <t>Treatment eligibility for hepatitis B and C</t>
+  </si>
+  <si>
+    <t>Retinopathy screening and treatment</t>
+  </si>
+  <si>
+    <t>Percutaneous coronary intervention</t>
+  </si>
+  <si>
+    <t>Repair of anorectal malformations</t>
+  </si>
+  <si>
+    <t>Resuscitation with advanced measures</t>
+  </si>
+  <si>
+    <t>Resuscitation with basic measures</t>
+  </si>
+  <si>
+    <t>Psychological treatment</t>
+  </si>
+  <si>
+    <t>Expedited treatment for common STIs</t>
+  </si>
+  <si>
+    <t>Aspirin for acute myocardial infarction</t>
+  </si>
+  <si>
+    <t>Condoms and hormonal contraceptives</t>
+  </si>
+  <si>
+    <t>Provision of insecticide nets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhaled corticosteroids and bronchodilators </t>
+  </si>
+  <si>
+    <t>Screening for endocrine or metabolic disorders</t>
+  </si>
+  <si>
+    <t>Cataract extraction</t>
+  </si>
+  <si>
+    <t>Urgent surgery for orthopedic injuries</t>
+  </si>
+  <si>
+    <t>Elective surgery for orthopedic injuries</t>
+  </si>
+  <si>
+    <t>Prevention and relief of refractory suffering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobilization activities </t>
+  </si>
+  <si>
+    <t>Management of newborn complications</t>
+  </si>
+  <si>
+    <t>Labor and delivery in high risk women</t>
+  </si>
+  <si>
+    <t>Insertion and removal of contraceptives</t>
+  </si>
+  <si>
+    <t>Individualized interventions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental management for malaria </t>
+  </si>
+  <si>
+    <t>Counseling on providing thermal care</t>
+  </si>
+  <si>
+    <t>Mass drug administration (NTDs)</t>
+  </si>
+  <si>
+    <t>Mass marketing of insecticide nets</t>
+  </si>
+  <si>
+    <t>Provision of condoms</t>
+  </si>
+  <si>
+    <t>Primary prevention of osteoporosis</t>
+  </si>
+  <si>
+    <t>Secondary prevention of osteoporosis</t>
+  </si>
+  <si>
+    <t>Identify and refer for progressive illness</t>
+  </si>
+  <si>
+    <t>Support for caregivers of dementia patients</t>
+  </si>
+  <si>
+    <t>Therapy for CVD risk factors</t>
+  </si>
+  <si>
+    <t>Psycological and antidepressant therapy</t>
+  </si>
+  <si>
+    <t>BEmNOC</t>
+  </si>
+  <si>
+    <t>Medical male circumcision</t>
+  </si>
+  <si>
+    <t>Psychosocial support and counseling</t>
+  </si>
+  <si>
+    <t>Screening and brief alcohol intervention</t>
+  </si>
+  <si>
+    <t>Screening and ACEi or ARBs for kidney disease</t>
+  </si>
+  <si>
+    <t>Diabetes screening and care for at-risk adults</t>
+  </si>
+  <si>
+    <t>Diabetes screening and care in pregnancy</t>
+  </si>
+  <si>
+    <t>Secondary prophylaxis for rheumatic fever</t>
+  </si>
+  <si>
+    <t>Latent-TB screening and IPT for PLHIV</t>
+  </si>
+  <si>
+    <t>Stockpile and AV treatment strategies</t>
+  </si>
+  <si>
+    <t>Screening for congenital hearing loss</t>
+  </si>
+  <si>
+    <t>Treatment of acute pharyngitis</t>
+  </si>
+  <si>
+    <t>Opportunistic screening for cervical cancer</t>
+  </si>
+  <si>
+    <t>Care for hypertensive disorders in pregnancy</t>
+  </si>
+  <si>
+    <t>HIV screening and care for active TB patients</t>
+  </si>
+  <si>
+    <t>Support in the use of assistive products</t>
+  </si>
+  <si>
+    <t>Therapy for moderate to severe arthritis</t>
+  </si>
+  <si>
+    <t>Compression therapy</t>
+  </si>
+  <si>
+    <t>Care for fetal growth restriction</t>
+  </si>
+  <si>
+    <t>Care for early-stage cervical cancer</t>
+  </si>
+  <si>
+    <t>Fabrication of prosthetics, orthotics, and splints</t>
+  </si>
+  <si>
+    <t>Acute management of swallowing dysfunction</t>
+  </si>
+  <si>
+    <t>Care for fractures</t>
+  </si>
+  <si>
+    <t>Care for severe childhood infections</t>
+  </si>
+  <si>
+    <t>Hernia repair</t>
+  </si>
+  <si>
+    <t>Universal newborn screening for sickle cell</t>
+  </si>
+  <si>
+    <t>Identification of genetic disorders</t>
+  </si>
+  <si>
+    <t>Testing and counseling for HIV, STIs, hepatitis</t>
+  </si>
+  <si>
+    <t>Management of sexual and tract infections</t>
+  </si>
+  <si>
+    <t>Care for neonatal sepsis, pneumonia, meningitis</t>
+  </si>
+  <si>
+    <t>Basic management of MNIs and disorders</t>
+  </si>
+  <si>
+    <t>TB ACF and linkage to care</t>
+  </si>
+  <si>
+    <t>Adolescent-friendly services for STIs</t>
+  </si>
+  <si>
+    <t>Integrated community case management</t>
+  </si>
+  <si>
+    <t>Use of vaccines for endemic infections</t>
+  </si>
+  <si>
+    <t>Bipolar disorder management</t>
+  </si>
+  <si>
+    <t>Fever management for clinically stable</t>
+  </si>
+  <si>
+    <t>Miscarriage and abortions management</t>
+  </si>
+  <si>
+    <t>Non-displaced fractures management</t>
+  </si>
+  <si>
+    <t>Schizophrenia management</t>
+  </si>
+  <si>
+    <t>Preterm premature rupture management</t>
+  </si>
+  <si>
+    <t>Epilepsy management</t>
+  </si>
+  <si>
+    <t>Fever management for clinically unstable</t>
+  </si>
+  <si>
+    <t>Acute asthma and COPD management</t>
+  </si>
+  <si>
+    <t>Bowel obstruction management</t>
+  </si>
+  <si>
+    <t>Eclampsia management</t>
+  </si>
+  <si>
+    <t>Intoxication/poisoning management</t>
+  </si>
+  <si>
+    <t>Maternal sepsis management</t>
+  </si>
+  <si>
+    <t>Osteomyelitis management</t>
+  </si>
+  <si>
+    <t>Preterm labor management</t>
+  </si>
+  <si>
+    <t>Septic arthritis management</t>
+  </si>
+  <si>
+    <t>Severe malaria management</t>
+  </si>
+  <si>
+    <t>Acute ventilatory failure management</t>
+  </si>
+  <si>
+    <t>Refractory febrile illness management</t>
+  </si>
+  <si>
+    <t>Acute severe malnutrition management</t>
+  </si>
+  <si>
+    <t>Lymphedema management</t>
+  </si>
+  <si>
+    <t>IHD, stroke and PVD management</t>
+  </si>
+  <si>
+    <t>Acute critical limb ischemia management</t>
+  </si>
+  <si>
+    <t>Severe acute malnutrition management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2090,7 +2602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2101,53 +2613,53 @@
   <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.625" customWidth="1"/>
-    <col min="2" max="2" width="103.375" customWidth="1"/>
-    <col min="3" max="3" width="36.125" customWidth="1"/>
-    <col min="4" max="4" width="43.125" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="6.75" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="103.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -2158,10 +2670,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -2172,10 +2684,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -2186,10 +2698,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -2200,10 +2712,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -2214,10 +2726,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -2228,16 +2740,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8">
         <v>0.21691828689811607</v>
@@ -2251,10 +2763,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -2265,16 +2777,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10">
         <v>23</v>
@@ -2291,10 +2803,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -2305,16 +2817,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12">
         <v>1.5130245068262688E-2</v>
@@ -2328,16 +2840,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>18</v>
@@ -2352,12 +2864,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -2380,10 +2892,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>457</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -2394,10 +2906,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -2408,7 +2920,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -2417,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17">
         <v>19560</v>
@@ -2434,16 +2946,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>13</v>
@@ -2460,16 +2972,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19">
         <v>2400</v>
@@ -2486,10 +2998,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>238</v>
+        <v>414</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -2512,16 +3024,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>415</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21">
         <v>237.02</v>
@@ -2538,16 +3050,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>479</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22">
         <v>32</v>
@@ -2562,18 +3074,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>458</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23">
         <v>8.9096486099157115</v>
@@ -2585,9 +3097,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>357</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -2596,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F24">
         <v>5.2529935346168033</v>
@@ -2608,18 +3120,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>250</v>
+        <v>386</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25">
         <v>63</v>
@@ -2634,12 +3146,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>358</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -2648,18 +3160,18 @@
         <v>0.21691828689811607</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27">
         <v>2908</v>
@@ -2674,18 +3186,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F28">
         <v>0.5</v>
@@ -2697,18 +3209,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>239</v>
+        <v>360</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29">
         <v>95</v>
@@ -2723,18 +3235,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>361</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30">
         <v>5.2529935346168033</v>
@@ -2746,12 +3258,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>362</v>
       </c>
       <c r="B31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -2769,18 +3281,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>363</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2795,18 +3307,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33">
         <v>1186</v>
@@ -2821,18 +3333,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>364</v>
       </c>
       <c r="B34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34">
         <v>1400</v>
@@ -2847,12 +3359,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -2861,12 +3373,12 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -2887,9 +3399,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -2898,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F37">
         <v>0.21691828689811607</v>
@@ -2910,12 +3422,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>209</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -2936,12 +3448,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -2962,12 +3474,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -2988,12 +3500,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -3014,12 +3526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>208</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -3040,12 +3552,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -3066,12 +3578,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>235</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -3080,12 +3592,12 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -3106,18 +3618,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F46">
         <v>5.2529935346168033</v>
@@ -3129,9 +3641,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -3143,18 +3655,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E48">
         <v>0.05</v>
@@ -3169,9 +3681,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>480</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -3180,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F49">
         <v>5.2529935346168033</v>
@@ -3192,9 +3704,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>416</v>
       </c>
       <c r="B50" t="s">
         <v>35</v>
@@ -3203,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E50">
         <v>11</v>
@@ -3218,12 +3730,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -3244,9 +3756,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s">
         <v>41</v>
@@ -3270,18 +3782,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="B53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F53">
         <v>3.0219082286381651</v>
@@ -3293,18 +3805,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E54">
         <v>103</v>
@@ -3319,18 +3831,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="B55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F55">
         <v>5.2529935346168033</v>
@@ -3342,18 +3854,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>252</v>
+        <v>372</v>
       </c>
       <c r="B56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E56">
         <v>1206</v>
@@ -3368,18 +3880,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>256</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F57">
         <v>5.2529935346168033</v>
@@ -3391,9 +3903,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>418</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -3402,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3417,18 +3929,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E59">
         <v>64</v>
@@ -3443,18 +3955,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E60">
         <v>3324</v>
@@ -3469,18 +3981,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>253</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E61">
         <v>285</v>
@@ -3495,18 +4007,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>222</v>
+        <v>377</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E62">
         <v>88</v>
@@ -3521,18 +4033,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F63">
         <v>10.5</v>
@@ -3544,9 +4056,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>378</v>
       </c>
       <c r="B64" t="s">
         <v>43</v>
@@ -3567,18 +4079,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E65">
         <v>242</v>
@@ -3593,12 +4105,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="B66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -3610,7 +4122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -3621,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F67">
         <v>0.14000000000000001</v>
@@ -3633,18 +4145,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>176</v>
+        <v>380</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E68">
         <v>1830</v>
@@ -3659,9 +4171,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s">
         <v>36</v>
@@ -3670,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E69">
         <v>324</v>
@@ -3685,9 +4197,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>388</v>
       </c>
       <c r="B70" t="s">
         <v>57</v>
@@ -3696,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F70">
         <v>5.2529935346168033</v>
@@ -3708,18 +4220,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3734,9 +4246,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>383</v>
       </c>
       <c r="B72" t="s">
         <v>38</v>
@@ -3745,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E72">
         <v>3276</v>
@@ -3760,9 +4272,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="B73" t="s">
         <v>44</v>
@@ -3771,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F73">
         <v>0.41942359295556153</v>
@@ -3783,18 +4295,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>197</v>
+        <v>384</v>
       </c>
       <c r="B74" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
       </c>
       <c r="D74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E74">
         <v>64</v>
@@ -3809,18 +4321,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F75">
         <v>4.6867967066306457</v>
@@ -3832,18 +4344,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="B76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F76">
         <v>0.67</v>
@@ -3855,18 +4367,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>267</v>
+        <v>455</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C77" t="s">
         <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E77">
         <v>5968</v>
@@ -3881,9 +4393,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>419</v>
       </c>
       <c r="B78" t="s">
         <v>52</v>
@@ -3892,7 +4404,7 @@
         <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F78">
         <v>7.6419917665766146</v>
@@ -3904,18 +4416,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F79">
         <v>16.122124895711178</v>
@@ -3927,18 +4439,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>180</v>
+        <v>329</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C80" t="s">
         <v>32</v>
       </c>
       <c r="D80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E80">
         <v>58</v>
@@ -3953,7 +4465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3964,7 +4476,7 @@
         <v>32</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F81">
         <v>16.122124895711178</v>
@@ -3976,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -3987,7 +4499,7 @@
         <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E82">
         <v>5.29</v>
@@ -4002,18 +4514,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>330</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E83">
         <v>36.340000000000003</v>
@@ -4028,12 +4540,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>389</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
         <v>32</v>
@@ -4042,18 +4554,18 @@
         <v>64.358947526679671</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>258</v>
+        <v>461</v>
       </c>
       <c r="B85" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C85" t="s">
         <v>32</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F85">
         <v>10.803598959475361</v>
@@ -4065,9 +4577,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>53</v>
+        <v>390</v>
       </c>
       <c r="B86" t="s">
         <v>53</v>
@@ -4076,7 +4588,7 @@
         <v>32</v>
       </c>
       <c r="D86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F86">
         <v>5.2529935346168033</v>
@@ -4088,12 +4600,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>219</v>
+        <v>391</v>
       </c>
       <c r="B87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C87" t="s">
         <v>32</v>
@@ -4102,18 +4614,18 @@
         <v>64.358947526679671</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>259</v>
+        <v>459</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C88" t="s">
         <v>32</v>
       </c>
       <c r="D88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E88">
         <v>64</v>
@@ -4122,18 +4634,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>199</v>
+        <v>392</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C89" t="s">
         <v>32</v>
       </c>
       <c r="D89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F89">
         <v>231.3957558791088</v>
@@ -4145,18 +4657,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>331</v>
       </c>
       <c r="B90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C90" t="s">
         <v>32</v>
       </c>
       <c r="D90" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E90">
         <v>2626</v>
@@ -4171,7 +4683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>45</v>
       </c>
@@ -4185,18 +4697,18 @@
         <v>0.33678664645906475</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>260</v>
+        <v>332</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C92" t="s">
         <v>32</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F92">
         <v>9.2458293766477926</v>
@@ -4208,12 +4720,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>257</v>
+        <v>421</v>
       </c>
       <c r="B93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C93" t="s">
         <v>32</v>
@@ -4222,9 +4734,9 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>422</v>
       </c>
       <c r="B94" t="s">
         <v>27</v>
@@ -4233,7 +4745,7 @@
         <v>32</v>
       </c>
       <c r="D94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F94">
         <v>13.431505823786758</v>
@@ -4245,18 +4757,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>423</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C95" t="s">
         <v>32</v>
       </c>
       <c r="D95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F95">
         <v>19.220474619863193</v>
@@ -4268,18 +4780,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>403</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
         <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E96">
         <v>1100</v>
@@ -4294,18 +4806,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>232</v>
+        <v>460</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s">
         <v>32</v>
       </c>
       <c r="D97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E97">
         <v>1499</v>
@@ -4320,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -4331,7 +4843,7 @@
         <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F98">
         <v>1.1635440671162765E-2</v>
@@ -4343,18 +4855,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C99" t="s">
         <v>32</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E99">
         <v>437</v>
@@ -4369,18 +4881,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>268</v>
+        <v>466</v>
       </c>
       <c r="B100" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C100" t="s">
         <v>32</v>
       </c>
       <c r="D100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E100">
         <v>115</v>
@@ -4395,18 +4907,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>261</v>
+        <v>425</v>
       </c>
       <c r="B101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C101" t="s">
         <v>32</v>
       </c>
       <c r="D101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E101">
         <v>147</v>
@@ -4421,18 +4933,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>262</v>
+        <v>462</v>
       </c>
       <c r="B102" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C102" t="s">
         <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F102">
         <v>9.6124698474463486</v>
@@ -4444,9 +4956,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
@@ -4455,7 +4967,7 @@
         <v>32</v>
       </c>
       <c r="D103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F103">
         <v>16.122124895711178</v>
@@ -4467,18 +4979,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>170</v>
+        <v>465</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C104" t="s">
         <v>32</v>
       </c>
       <c r="D104" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E104">
         <v>1675</v>
@@ -4493,18 +5005,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>226</v>
+        <v>464</v>
       </c>
       <c r="B105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C105" t="s">
         <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E105">
         <v>1499</v>
@@ -4519,18 +5031,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C106" t="s">
         <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E106">
         <v>4393</v>
@@ -4545,18 +5057,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>399</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C107" t="s">
         <v>32</v>
       </c>
       <c r="D107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E107">
         <v>3560</v>
@@ -4571,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -4582,7 +5094,7 @@
         <v>32</v>
       </c>
       <c r="D108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E108">
         <v>9</v>
@@ -4597,18 +5109,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="B109" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C109" t="s">
         <v>32</v>
       </c>
       <c r="D109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E109">
         <v>2908</v>
@@ -4623,18 +5135,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>335</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
         <v>32</v>
       </c>
       <c r="D110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E110">
         <v>12680</v>
@@ -4649,18 +5161,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>263</v>
+        <v>452</v>
       </c>
       <c r="B111" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
         <v>32</v>
       </c>
       <c r="D111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E111">
         <v>17</v>
@@ -4675,18 +5187,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>187</v>
+        <v>400</v>
       </c>
       <c r="B112" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C112" t="s">
         <v>32</v>
       </c>
       <c r="D112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F112">
         <v>2.675764110756124E-2</v>
@@ -4698,9 +5210,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>49</v>
+        <v>401</v>
       </c>
       <c r="B113" t="s">
         <v>49</v>
@@ -4712,12 +5224,12 @@
         <v>3.9155617804681011</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>205</v>
+        <v>402</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C114" t="s">
         <v>32</v>
@@ -4738,18 +5250,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>265</v>
+        <v>426</v>
       </c>
       <c r="B115" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C115" t="s">
         <v>32</v>
       </c>
       <c r="D115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E115">
         <v>3.16</v>
@@ -4764,18 +5276,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>269</v>
+        <v>398</v>
       </c>
       <c r="B116" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C116" t="s">
         <v>32</v>
       </c>
       <c r="D116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E116">
         <v>11484</v>
@@ -4790,12 +5302,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>427</v>
       </c>
       <c r="B117" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C117" t="s">
         <v>32</v>
@@ -4804,9 +5316,9 @@
         <v>64.358947526679671</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>397</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -4815,7 +5327,7 @@
         <v>32</v>
       </c>
       <c r="D118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F118">
         <v>16.122124895711178</v>
@@ -4824,9 +5336,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>59</v>
+        <v>336</v>
       </c>
       <c r="B119" t="s">
         <v>59</v>
@@ -4835,7 +5347,7 @@
         <v>32</v>
       </c>
       <c r="D119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F119">
         <v>5.2529935346168033</v>
@@ -4847,18 +5359,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C120" t="s">
         <v>32</v>
       </c>
       <c r="D120" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E120">
         <v>832</v>
@@ -4873,18 +5385,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>189</v>
+        <v>429</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C121" t="s">
         <v>32</v>
       </c>
       <c r="D121" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E121">
         <v>4813</v>
@@ -4899,18 +5411,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
         <v>32</v>
       </c>
       <c r="D122" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4925,18 +5437,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>292</v>
+        <v>431</v>
       </c>
       <c r="B123" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C123" t="s">
         <v>32</v>
       </c>
       <c r="D123" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E123">
         <v>72799</v>
@@ -4951,18 +5463,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>201</v>
+        <v>433</v>
       </c>
       <c r="B124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C124" t="s">
         <v>32</v>
       </c>
       <c r="D124" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E124">
         <v>2301</v>
@@ -4977,18 +5489,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>153</v>
+        <v>432</v>
       </c>
       <c r="B125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C125" t="s">
         <v>32</v>
       </c>
       <c r="D125" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F125">
         <v>0.12884216254510045</v>
@@ -5000,12 +5512,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>434</v>
       </c>
       <c r="B126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s">
         <v>32</v>
@@ -5014,7 +5526,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -5025,7 +5537,7 @@
         <v>32</v>
       </c>
       <c r="D127" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F127">
         <v>16.122124895711178</v>
@@ -5037,18 +5549,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>264</v>
+        <v>453</v>
       </c>
       <c r="B128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C128" t="s">
         <v>32</v>
       </c>
       <c r="D128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E128">
         <v>62.55</v>
@@ -5063,9 +5575,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>51</v>
+        <v>435</v>
       </c>
       <c r="B129" t="s">
         <v>51</v>
@@ -5074,7 +5586,7 @@
         <v>32</v>
       </c>
       <c r="D129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E129">
         <v>4898</v>
@@ -5089,9 +5601,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>337</v>
       </c>
       <c r="B130" t="s">
         <v>28</v>
@@ -5100,7 +5612,7 @@
         <v>32</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E130">
         <v>96</v>
@@ -5115,18 +5627,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>67</v>
+        <v>436</v>
       </c>
       <c r="B131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C131" t="s">
         <v>32</v>
       </c>
       <c r="D131" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E131">
         <v>12</v>
@@ -5141,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -5152,7 +5664,7 @@
         <v>32</v>
       </c>
       <c r="D132" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F132">
         <v>16.122124895711178</v>
@@ -5164,18 +5676,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>338</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C133" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E133">
         <v>237</v>
@@ -5190,15 +5702,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>339</v>
       </c>
       <c r="B134" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C134" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D134" t="s">
         <v>0</v>
@@ -5216,18 +5728,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>186</v>
+        <v>481</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C135" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D135" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F135">
         <v>64.39489403018591</v>
@@ -5239,18 +5751,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>272</v>
+        <v>454</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D136" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E136">
         <v>5488</v>
@@ -5265,18 +5777,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>340</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D137" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E137">
         <v>172</v>
@@ -5291,18 +5803,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>34</v>
+        <v>437</v>
       </c>
       <c r="B138" t="s">
         <v>34</v>
       </c>
       <c r="C138" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D138" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E138">
         <v>681</v>
@@ -5317,32 +5829,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B139" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C139" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F139">
         <v>3.7862030200502059</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>227</v>
+        <v>438</v>
       </c>
       <c r="B140" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C140" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D140" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E140">
         <v>72799</v>
@@ -5357,18 +5869,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>273</v>
+        <v>439</v>
       </c>
       <c r="B141" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C141" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E141">
         <v>1089</v>
@@ -5383,7 +5895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -5394,7 +5906,7 @@
         <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E142">
         <v>5</v>
@@ -5409,9 +5921,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>64</v>
+        <v>440</v>
       </c>
       <c r="B143" t="s">
         <v>64</v>
@@ -5420,7 +5932,7 @@
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E143">
         <v>7163</v>
@@ -5435,18 +5947,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>341</v>
       </c>
       <c r="B144" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E144">
         <v>322.2</v>
@@ -5461,18 +5973,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B145" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E145">
         <v>60</v>
@@ -5487,18 +5999,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="B146" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F146">
         <v>93.432191942566149</v>
@@ -5510,9 +6022,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
       <c r="B147" t="s">
         <v>54</v>
@@ -5521,7 +6033,7 @@
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F147">
         <v>8.7369002659035608</v>
@@ -5533,7 +6045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -5544,7 +6056,7 @@
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E148">
         <v>47.24</v>
@@ -5559,9 +6071,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>55</v>
+        <v>441</v>
       </c>
       <c r="B149" t="s">
         <v>55</v>
@@ -5570,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -5585,9 +6097,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>63</v>
+        <v>442</v>
       </c>
       <c r="B150" t="s">
         <v>63</v>
@@ -5596,7 +6108,7 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F150">
         <v>5.2529935346168033</v>
@@ -5608,9 +6120,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>443</v>
       </c>
       <c r="B151" t="s">
         <v>23</v>
@@ -5619,7 +6131,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F151">
         <v>231.27734299174813</v>
@@ -5631,18 +6143,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>444</v>
       </c>
       <c r="B152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F152">
         <v>35.577304550758463</v>
@@ -5654,18 +6166,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B153" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F153">
         <v>93.432191942566149</v>
@@ -5677,9 +6189,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>61</v>
+        <v>446</v>
       </c>
       <c r="B154" t="s">
         <v>61</v>
@@ -5688,7 +6200,7 @@
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F154">
         <v>5.2529935346168033</v>
@@ -5700,18 +6212,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>467</v>
       </c>
       <c r="B155" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C155" t="s">
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F155">
         <v>100.84173741760144</v>
@@ -5723,9 +6235,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>62</v>
+        <v>445</v>
       </c>
       <c r="B156" t="s">
         <v>62</v>
@@ -5734,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F156">
         <v>5.2529935346168033</v>
@@ -5746,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>46</v>
       </c>
@@ -5760,18 +6272,18 @@
         <v>0.52436208073605961</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>283</v>
+        <v>447</v>
       </c>
       <c r="B158" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C158" t="s">
         <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E158">
         <v>69</v>
@@ -5786,35 +6298,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>181</v>
+        <v>448</v>
       </c>
       <c r="B159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H159">
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="B160" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E160">
         <v>33.33</v>
@@ -5829,9 +6341,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>343</v>
       </c>
       <c r="B161" t="s">
         <v>15</v>
@@ -5840,7 +6352,7 @@
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E161">
         <v>322.2</v>
@@ -5855,18 +6367,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>233</v>
+        <v>450</v>
       </c>
       <c r="B162" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C162" t="s">
         <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E162">
         <v>119</v>
@@ -5881,18 +6393,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>279</v>
+        <v>451</v>
       </c>
       <c r="B163" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C163" t="s">
         <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F163">
         <v>39.804818144216824</v>
@@ -5904,7 +6416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>24</v>
       </c>
@@ -5915,7 +6427,7 @@
         <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F164">
         <v>1.6623041356945802</v>
@@ -5924,18 +6436,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>65</v>
+        <v>413</v>
       </c>
       <c r="B165" t="s">
-        <v>65</v>
+        <v>344</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -5950,18 +6462,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>229</v>
+        <v>412</v>
       </c>
       <c r="B166" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C166" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -5972,7 +6484,7 @@
         <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E167">
         <v>226</v>
@@ -5987,18 +6499,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B168" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C168" t="s">
         <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F168">
         <v>33.556172657747275</v>
@@ -6010,18 +6522,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>192</v>
+        <v>345</v>
       </c>
       <c r="B169" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E169">
         <v>2530</v>
@@ -6036,18 +6548,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>193</v>
+        <v>482</v>
       </c>
       <c r="B170" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E170">
         <v>18</v>
@@ -6062,18 +6574,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>155</v>
+        <v>468</v>
       </c>
       <c r="B171" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C171" t="s">
         <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E171">
         <v>5488</v>
@@ -6088,18 +6600,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>71</v>
+        <v>469</v>
       </c>
       <c r="B172" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E172">
         <v>47.24</v>
@@ -6114,18 +6626,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="B173" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C173" t="s">
         <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E173">
         <v>7</v>
@@ -6140,18 +6652,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="B174" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C174" t="s">
         <v>2</v>
       </c>
       <c r="D174" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F174">
         <v>56.27</v>
@@ -6163,18 +6675,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>275</v>
+        <v>411</v>
       </c>
       <c r="B175" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E175">
         <v>2040</v>
@@ -6189,18 +6701,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>472</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E176">
         <v>190</v>
@@ -6215,18 +6727,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>410</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C177" t="s">
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -6238,18 +6750,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>221</v>
+        <v>473</v>
       </c>
       <c r="B178" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C178" t="s">
         <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E178">
         <v>440.3</v>
@@ -6264,18 +6776,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>277</v>
+        <v>474</v>
       </c>
       <c r="B179" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E179">
         <v>3338</v>
@@ -6290,18 +6802,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>164</v>
+        <v>475</v>
       </c>
       <c r="B180" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E180">
         <v>440.3</v>
@@ -6316,18 +6828,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>483</v>
       </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E181">
         <v>26</v>
@@ -6336,12 +6848,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>276</v>
+        <v>476</v>
       </c>
       <c r="B182" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -6359,18 +6871,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B183" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C183" t="s">
         <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E183">
         <v>13</v>
@@ -6385,9 +6897,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>60</v>
+        <v>409</v>
       </c>
       <c r="B184" t="s">
         <v>60</v>
@@ -6396,7 +6908,7 @@
         <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F184">
         <v>5.2529935346168033</v>
@@ -6408,12 +6920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>408</v>
       </c>
       <c r="B185" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C185" t="s">
         <v>2</v>
@@ -6422,12 +6934,12 @@
         <v>64.358947526679671</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="B186" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C186" t="s">
         <v>2</v>
@@ -6448,18 +6960,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>163</v>
+        <v>347</v>
       </c>
       <c r="B187" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E187">
         <v>47.24</v>
@@ -6474,18 +6986,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="B188" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E188">
         <v>47.24</v>
@@ -6500,18 +7012,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="B189" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E189">
         <v>47.24</v>
@@ -6526,9 +7038,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>12</v>
+        <v>396</v>
       </c>
       <c r="B190" t="s">
         <v>12</v>
@@ -6537,7 +7049,7 @@
         <v>2</v>
       </c>
       <c r="D190" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F190">
         <v>161.22124895711178</v>
@@ -6546,18 +7058,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B191" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C191" t="s">
         <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E191">
         <v>322.2</v>
@@ -6572,18 +7084,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B192" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C192" t="s">
         <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F192">
         <v>161.22124895711178</v>
@@ -6595,12 +7107,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="B193" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C193" t="s">
         <v>2</v>
@@ -6609,7 +7121,7 @@
         <v>161.22124895711178</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -6620,7 +7132,7 @@
         <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -6635,7 +7147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -6646,7 +7158,7 @@
         <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E195">
         <v>18</v>
@@ -6661,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>16</v>
       </c>
@@ -6672,18 +7184,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B197" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C197" t="s">
         <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F197">
         <v>161.22124895711178</v>
@@ -6695,18 +7207,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>281</v>
+        <v>404</v>
       </c>
       <c r="B198" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
       </c>
       <c r="D198" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -6721,7 +7233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -6732,9 +7244,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="B200" t="s">
         <v>20</v>
@@ -6743,7 +7255,7 @@
         <v>30</v>
       </c>
       <c r="D200" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E200">
         <v>20.49</v>
@@ -6758,18 +7270,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>284</v>
+        <v>407</v>
       </c>
       <c r="B201" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C201" t="s">
         <v>30</v>
       </c>
       <c r="D201" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F201">
         <v>100.79047705176647</v>
@@ -6781,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -6792,7 +7304,7 @@
         <v>30</v>
       </c>
       <c r="D202" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E202">
         <v>237</v>
@@ -6807,18 +7319,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B203" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C203" t="s">
         <v>30</v>
       </c>
       <c r="D203" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E203">
         <v>124.38</v>
@@ -6833,18 +7345,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>157</v>
+        <v>477</v>
       </c>
       <c r="B204" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C204" t="s">
         <v>30</v>
       </c>
       <c r="D204" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F204">
         <v>217.8898459511226</v>
@@ -6856,9 +7368,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>42</v>
+        <v>478</v>
       </c>
       <c r="B205" t="s">
         <v>42</v>
@@ -6867,13 +7379,13 @@
         <v>30</v>
       </c>
       <c r="D205" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H205">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>47</v>
       </c>
@@ -6887,9 +7399,9 @@
         <v>3.1737215953354062E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>18</v>
+        <v>395</v>
       </c>
       <c r="B207" t="s">
         <v>18</v>
@@ -6898,7 +7410,7 @@
         <v>30</v>
       </c>
       <c r="D207" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F207">
         <v>200</v>
@@ -6910,18 +7422,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B208" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C208" t="s">
         <v>30</v>
       </c>
       <c r="D208" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E208">
         <v>31.18</v>
@@ -6936,7 +7448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>19</v>
       </c>
@@ -6947,7 +7459,7 @@
         <v>30</v>
       </c>
       <c r="D209" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E209">
         <v>10</v>
@@ -6962,18 +7474,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B210" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C210" t="s">
         <v>30</v>
       </c>
       <c r="D210" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F210">
         <v>200</v>
@@ -6985,9 +7497,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>29</v>
+        <v>393</v>
       </c>
       <c r="B211" t="s">
         <v>29</v>
@@ -6996,7 +7508,7 @@
         <v>30</v>
       </c>
       <c r="D211" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E211">
         <v>630.6</v>
@@ -7011,12 +7523,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>202</v>
+        <v>351</v>
       </c>
       <c r="B212" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C212" t="s">
         <v>30</v>
@@ -7034,7 +7546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>48</v>
       </c>
@@ -7048,18 +7560,18 @@
         <v>3.1737215953354062E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C214" t="s">
         <v>30</v>
       </c>
       <c r="D214" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E214">
         <v>42.73</v>
@@ -7074,18 +7586,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="B215" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C215" t="s">
         <v>30</v>
       </c>
       <c r="D215" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E215">
         <v>230</v>
@@ -7100,18 +7612,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="B216" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C216" t="s">
         <v>30</v>
       </c>
       <c r="D216" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E216">
         <v>427</v>
@@ -7126,18 +7638,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="B217" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C217" t="s">
         <v>30</v>
       </c>
       <c r="D217" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E217">
         <v>1539</v>
@@ -7152,18 +7664,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>289</v>
+        <v>406</v>
       </c>
       <c r="B218" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C218" t="s">
         <v>30</v>
       </c>
       <c r="D218" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F218">
         <v>100.79047705176647</v>
@@ -7175,18 +7687,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>156</v>
+        <v>394</v>
       </c>
       <c r="B219" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C219" t="s">
         <v>30</v>
       </c>
       <c r="D219" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E219">
         <v>530</v>

--- a/data/dcp-data.xlsx
+++ b/data/dcp-data.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerard/Dropbox/Optima UHC/DCP3/HealthPrior DCP3 databook/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25560" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" calcMode="manual"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="485">
   <si>
     <t>Tuberculosis</t>
   </si>
@@ -1479,12 +1471,15 @@
   </si>
   <si>
     <t>Severe acute malnutrition management</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2602,7 +2597,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2610,5100 +2605,5758 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="103.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="103.375" customWidth="1"/>
+    <col min="4" max="4" width="36.125" customWidth="1"/>
+    <col min="5" max="5" width="43.125" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>303</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>158</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>304</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>159</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>305</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>241</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>306</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>242</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>307</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>243</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>308</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>160</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>309</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>246</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>112</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.21691828689811607</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>310</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>244</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.2172769190119121</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>311</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>131</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>23</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.5130245068262688E-2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>312</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>245</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>313</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>131</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.5130245068262688E-2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>314</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>127</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>18</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.1373682469786397</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>456</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>240</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>330</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>272.9580220327901</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>457</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>195</v>
       </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>4.17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>355</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>168</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>0.248529494536535</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>315</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
       <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>131</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>19560</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
         <v>316</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>199</v>
       </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
       <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>100</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>13</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>8.3081131621527771</v>
       </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
       <c r="H18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
         <v>356</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>248</v>
       </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
       <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>112</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2400</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>18.281984246694059</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>4</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
         <v>414</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>237</v>
       </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
       <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>31</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>175</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2.3558327287917193</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>415</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>173</v>
       </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
       <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>129</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>237.02</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.118814539054747</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
       <c r="H21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
         <v>479</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>222</v>
       </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
       <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>132</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>32</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>47.662070827236811</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>458</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>177</v>
       </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
       <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>100</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>8.9096486099157115</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>3</v>
       </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>357</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
       <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>131</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
       <c r="H24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>386</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>249</v>
       </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
       <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>127</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>63</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>171.59430847972808</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>358</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>215</v>
       </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26">
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>0.21691828689811607</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>359</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
       <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
         <v>116</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2908</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.21691828689811607</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
       <c r="H27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>216</v>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>216</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
         <v>299</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.5</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
         <v>360</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>238</v>
       </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
       <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>105</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>95</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>4.2925946792905298</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>3</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
         <v>361</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>157</v>
       </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
       <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
         <v>98</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
       <c r="H30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
         <v>362</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>203</v>
       </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
       <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
         <v>31</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.63500000000000001</v>
       </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
       <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>363</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>233</v>
       </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
       <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
         <v>131</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
       <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
       <c r="H32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
         <v>317</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
       <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>112</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1186</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.248529494536535</v>
       </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
       <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
         <v>364</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>250</v>
       </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
       <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
         <v>112</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1400</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>4.9445642275071053</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>3</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
         <v>318</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>247</v>
       </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35">
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>365</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>202</v>
       </c>
-      <c r="C36" t="s">
-        <v>1</v>
-      </c>
       <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
         <v>31</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>31</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>3.0509432572250312</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>3</v>
       </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
         <v>319</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>50</v>
       </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
       <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
         <v>116</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.21691828689811607</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
       <c r="H37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>366</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>208</v>
       </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
       <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>31</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>93</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>2.4124539576553481</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>3</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
         <v>320</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>209</v>
       </c>
-      <c r="C39" t="s">
-        <v>1</v>
-      </c>
       <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
         <v>31</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>54</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.52964517770802444</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
       <c r="H39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
         <v>368</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>212</v>
       </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
       <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
         <v>31</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>49</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.48827628906858322</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
       <c r="H40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>367</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>210</v>
       </c>
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
       <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
         <v>31</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>49</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.4495242026345686</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
       <c r="H41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>369</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>207</v>
       </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
       <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>31</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>6</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>2.0230000000000001E-2</v>
       </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
       <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
         <v>321</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>205</v>
       </c>
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
       <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
         <v>31</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>6</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1.7790273640275014</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
       <c r="H43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
         <v>387</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>234</v>
       </c>
-      <c r="C44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44">
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
         <v>322</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>211</v>
       </c>
-      <c r="C45" t="s">
-        <v>1</v>
-      </c>
       <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
         <v>31</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>49</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>20.946845798236545</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>3</v>
       </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
         <v>323</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>253</v>
       </c>
-      <c r="C46" t="s">
-        <v>1</v>
-      </c>
       <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
         <v>131</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
       <c r="H46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>324</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>25</v>
       </c>
-      <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47">
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
         <v>370</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>235</v>
       </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
       <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
         <v>128</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>0.05</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>8.2514989228512476</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>4</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
         <v>480</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>37</v>
       </c>
-      <c r="C49" t="s">
-        <v>1</v>
-      </c>
       <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
         <v>127</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
       <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>416</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>35</v>
       </c>
-      <c r="C50" t="s">
-        <v>1</v>
-      </c>
       <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
         <v>127</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>11</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.4546559785461225</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
       <c r="H50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
         <v>371</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>206</v>
       </c>
-      <c r="C51" t="s">
-        <v>1</v>
-      </c>
       <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
         <v>31</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>6</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.80994758485579355</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
       <c r="H51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
         <v>417</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>41</v>
       </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
       <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
         <v>31</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>76</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.35823210058869914</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
       <c r="H52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
         <v>325</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>239</v>
       </c>
-      <c r="C53" t="s">
-        <v>1</v>
-      </c>
       <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
         <v>116</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>3.0219082286381651</v>
       </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
       <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>224</v>
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
       </c>
       <c r="B54" t="s">
         <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
         <v>100</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>103</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>10.5</v>
       </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
       <c r="H54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="I54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
         <v>326</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>254</v>
       </c>
-      <c r="C55" t="s">
-        <v>1</v>
-      </c>
       <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
         <v>131</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
       <c r="H55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
         <v>372</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>251</v>
       </c>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
       <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
         <v>132</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>1206</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0.118814539054747</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
       <c r="H56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
         <v>373</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>255</v>
       </c>
-      <c r="C57" t="s">
-        <v>1</v>
-      </c>
       <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
         <v>131</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
       <c r="H57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
         <v>418</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>39</v>
       </c>
-      <c r="C58" t="s">
-        <v>1</v>
-      </c>
       <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
         <v>112</v>
       </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
       <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
         <v>1.7038647869188983</v>
       </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
       <c r="H58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
         <v>374</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>178</v>
       </c>
-      <c r="C59" t="s">
-        <v>1</v>
-      </c>
       <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
         <v>112</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>64</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>80.443131461033275</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>5</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
         <v>375</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>80</v>
       </c>
-      <c r="C60" t="s">
-        <v>1</v>
-      </c>
       <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
         <v>133</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>3324</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>5.3019999999999996</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>3</v>
       </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="I60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
         <v>376</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>252</v>
       </c>
-      <c r="C61" t="s">
-        <v>1</v>
-      </c>
       <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
         <v>132</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>285</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>5.5264999999999995</v>
       </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
       <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
         <v>377</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>221</v>
       </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
       <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
         <v>132</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>88</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>2.0609322772375127</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
       <c r="H62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>223</v>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
       </c>
       <c r="B63" t="s">
         <v>223</v>
       </c>
       <c r="C63" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
         <v>100</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>10.5</v>
       </c>
-      <c r="G63">
-        <v>2</v>
-      </c>
       <c r="H63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="I63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
         <v>378</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>43</v>
       </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
       <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>2.1640023560422481</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>227</v>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
       </c>
       <c r="B65" t="s">
         <v>227</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
         <v>95</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>242</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>9.1430085225198408</v>
       </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
       <c r="H65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
         <v>379</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>289</v>
       </c>
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66">
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66">
         <v>742</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>26</v>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
         <v>125</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
         <v>380</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>175</v>
       </c>
-      <c r="C68" t="s">
-        <v>1</v>
-      </c>
       <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
         <v>147</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>1830</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>0.7</v>
       </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
         <v>381</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>36</v>
       </c>
-      <c r="C69" t="s">
-        <v>1</v>
-      </c>
       <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
         <v>127</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>324</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>2.8255201523976186</v>
       </c>
-      <c r="G69">
-        <v>2</v>
-      </c>
       <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
         <v>388</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>57</v>
       </c>
-      <c r="C70" t="s">
-        <v>1</v>
-      </c>
       <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
         <v>131</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
       <c r="H70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
         <v>382</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>79</v>
       </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
       <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
         <v>131</v>
       </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
       <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
       <c r="H71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
         <v>383</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>38</v>
       </c>
-      <c r="C72" t="s">
-        <v>1</v>
-      </c>
       <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
         <v>141</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>3276</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>0.6</v>
       </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
       <c r="H72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
         <v>327</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>44</v>
       </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
       <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
         <v>105</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>0.41942359295556153</v>
       </c>
-      <c r="G73">
-        <v>2</v>
-      </c>
       <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
         <v>384</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>196</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>32</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>112</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>64</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>196.47598722309527</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>5</v>
       </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
         <v>328</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>190</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>32</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>98</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>4.6867967066306457</v>
       </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
       <c r="H75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
         <v>385</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>265</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>32</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>118</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>0.67</v>
       </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
       <c r="H76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
         <v>455</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>266</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>32</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>131</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>5968</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
       <c r="H77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
         <v>419</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>52</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>32</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>104</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>7.6419917665766146</v>
       </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
       <c r="H78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
       </c>
       <c r="B79" t="s">
         <v>71</v>
       </c>
       <c r="C79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" t="s">
         <v>32</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>106</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>16.122124895711178</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>3</v>
       </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
         <v>329</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>179</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>32</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>100</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>58</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>8.1317460167989637</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>3</v>
       </c>
-      <c r="H80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>7</v>
+      <c r="I80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
         <v>32</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>106</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>16.122124895711178</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>3</v>
       </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>3</v>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
         <v>32</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>94</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>5.29</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>16.122124895711178</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>3</v>
       </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
         <v>330</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>171</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>32</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>124</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>36.340000000000003</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>3.8321104472039145</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>3</v>
       </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
         <v>389</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>182</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>32</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>64.358947526679671</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
         <v>461</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>257</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>32</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>100</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>10.803598959475361</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>3</v>
       </c>
-      <c r="H85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="I85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
         <v>390</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>53</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>32</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>131</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
       <c r="H86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
         <v>391</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>218</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>32</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>64.358947526679671</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
         <v>459</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>258</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>32</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>100</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>64</v>
       </c>
-      <c r="H88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="I88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
         <v>392</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>198</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>32</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>111</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>231.3957558791088</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>4</v>
       </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
         <v>331</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>150</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>32</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>300</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>2626</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>73.145665077899338</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>5</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>45</v>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
       </c>
       <c r="B91" t="s">
         <v>45</v>
       </c>
       <c r="C91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" t="s">
         <v>32</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>0.33678664645906475</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
         <v>332</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>259</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>32</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>111</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>9.2458293766477926</v>
       </c>
-      <c r="G92">
-        <v>2</v>
-      </c>
       <c r="H92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
         <v>421</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>256</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>32</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
         <v>422</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>27</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>32</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>85</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>13.431505823786758</v>
       </c>
-      <c r="G94">
-        <v>2</v>
-      </c>
       <c r="H94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
         <v>423</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>184</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>32</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>92</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>19.220474619863193</v>
       </c>
-      <c r="G95">
-        <v>2</v>
-      </c>
       <c r="H95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
         <v>403</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>193</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>32</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>87</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>1100</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>50.993475299729845</v>
       </c>
-      <c r="G96">
-        <v>2</v>
-      </c>
       <c r="H96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
         <v>460</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>231</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>32</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>89</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>1499</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>153.27000000000001</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>4</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>21</v>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
       </c>
       <c r="B98" t="s">
         <v>21</v>
       </c>
       <c r="C98" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" t="s">
         <v>32</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>116</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>1.1635440671162765E-2</v>
       </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
       <c r="H98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
         <v>424</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>78</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>32</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>102</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>437</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>13.379999999999999</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>3</v>
       </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
         <v>466</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>267</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>32</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>107</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>115</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>22.86</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>4</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
         <v>425</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>260</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>32</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>121</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>147</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>81.752040520855701</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>6</v>
       </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
         <v>462</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>261</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>32</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>120</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>9.6124698474463486</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>4</v>
       </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
         <v>463</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>4</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>32</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>115</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>16.122124895711178</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>4</v>
       </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
         <v>465</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>169</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>32</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>129</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>1675</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>3.1742986146488623</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>3</v>
       </c>
-      <c r="H104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="I104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
         <v>464</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>225</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>32</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>144</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>1499</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>82.57</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>4</v>
       </c>
-      <c r="H105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="I105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
         <v>333</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>183</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>32</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>92</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>4393</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>1.4797812679861231</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>0</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
         <v>399</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>194</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>32</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>145</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>3560</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>2.923101510025103</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>3</v>
       </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>40</v>
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
       </c>
       <c r="B108" t="s">
         <v>40</v>
       </c>
       <c r="C108" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" t="s">
         <v>32</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>112</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>9</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>254.60902660160465</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>5</v>
       </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
         <v>334</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>269</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>32</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>116</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>2908</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>2.8939906360520209</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>3</v>
       </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
         <v>335</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>197</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>32</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>112</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>12680</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>131.71779696347781</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>5</v>
       </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
         <v>452</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>262</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>32</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>112</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>17</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>5.0067137408726454</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>3</v>
       </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
         <v>400</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>186</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>32</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>117</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>2.675764110756124E-2</v>
       </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
       <c r="H112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
         <v>401</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>49</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>32</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>3.9155617804681011</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
         <v>402</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>204</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>32</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>31</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>27</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>6.1816122110580389</v>
       </c>
-      <c r="G114">
-        <v>2</v>
-      </c>
       <c r="H114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
         <v>426</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>264</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>32</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>112</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>3.16</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>32.674754216549147</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>4</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
         <v>398</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>268</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>32</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>88</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>11484</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>35.44</v>
       </c>
-      <c r="G116">
-        <v>2</v>
-      </c>
       <c r="H116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
         <v>427</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>217</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>32</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>64.358947526679671</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
         <v>397</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>5</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>32</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>115</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>16.122124895711178</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
         <v>336</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>59</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>32</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>131</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
       <c r="H119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
         <v>428</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>81</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>32</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>84</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>832</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>3.61</v>
       </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
       <c r="H120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
         <v>429</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>188</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>32</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>96</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>4813</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>41.05698281732284</v>
       </c>
-      <c r="G121">
-        <v>2</v>
-      </c>
       <c r="H121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
         <v>430</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>189</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>32</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>103</v>
       </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
       <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
         <v>73.615185505463486</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>3</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
         <v>431</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>291</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>32</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>101</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>72799</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>8.8451659255067661</v>
       </c>
-      <c r="G123">
-        <v>2</v>
-      </c>
       <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
         <v>433</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>200</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>32</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>113</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>2301</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>13.020616039822261</v>
-      </c>
-      <c r="G124">
-        <v>3</v>
       </c>
       <c r="H124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="I124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
         <v>432</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>152</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>32</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>142</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>0.12884216254510045</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>0</v>
       </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="I125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
         <v>434</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>161</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>32</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>6</v>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
         <v>32</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>115</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>16.122124895711178</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>4</v>
       </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
         <v>453</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>263</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>32</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>145</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>62.55</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>2.8590157106456027</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>3</v>
       </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
         <v>435</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>51</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>32</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>134</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>4898</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>30.843021994351353</v>
-      </c>
-      <c r="G129">
-        <v>3</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="I129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
         <v>337</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>28</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>32</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>131</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>96</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>11.087821949862175</v>
       </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
       <c r="H130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
         <v>436</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>66</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>32</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>142</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>12</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>0.12884216254510045</v>
       </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
       <c r="H131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>8</v>
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
       </c>
       <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
         <v>32</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>299</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>16.122124895711178</v>
       </c>
-      <c r="G132">
-        <v>2</v>
-      </c>
       <c r="H132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
         <v>338</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>172</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>170</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>129</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>237</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>2.3797644691069815</v>
-      </c>
-      <c r="G133">
-        <v>3</v>
       </c>
       <c r="H133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="I133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
         <v>339</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>151</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>170</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>0</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>1032</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>111.26</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>4</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
         <v>481</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>185</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>170</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>92</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>64.39489403018591</v>
       </c>
-      <c r="G135">
-        <v>2</v>
-      </c>
       <c r="H135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
         <v>454</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>271</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>170</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>130</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>5488</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>2.0885911092222216</v>
-      </c>
-      <c r="G136">
-        <v>3</v>
       </c>
       <c r="H136">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="I136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
         <v>340</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>187</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>170</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>91</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>172</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>244.39936583785567</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>4</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
         <v>437</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>34</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>170</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>95</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>681</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>3.6837913810802321</v>
       </c>
-      <c r="G138">
-        <v>2</v>
-      </c>
       <c r="H138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>229</v>
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
       </c>
       <c r="B139" t="s">
         <v>229</v>
       </c>
       <c r="C139" t="s">
+        <v>229</v>
+      </c>
+      <c r="D139" t="s">
         <v>170</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>3.7862030200502059</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
         <v>438</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>226</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>170</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>123</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>72799</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>1.0838059076525397</v>
       </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
       <c r="H140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
         <v>439</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>272</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>170</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>113</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>1089</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>1.6933568648852475</v>
       </c>
-      <c r="G141">
-        <v>2</v>
-      </c>
       <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>9</v>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
       </c>
       <c r="B142" t="s">
         <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
         <v>86</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>5</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>161.22124895711178</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>6</v>
       </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
         <v>440</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>64</v>
       </c>
-      <c r="C143" t="s">
-        <v>2</v>
-      </c>
       <c r="D143" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" t="s">
         <v>131</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>7163</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
       <c r="H143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
         <v>341</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>164</v>
       </c>
-      <c r="C144" t="s">
-        <v>2</v>
-      </c>
       <c r="D144" t="s">
+        <v>2</v>
+      </c>
+      <c r="E144" t="s">
         <v>121</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>322.2</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>161.22124895711178</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>6</v>
       </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>236</v>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1</v>
       </c>
       <c r="B145" t="s">
         <v>236</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="D145" t="s">
+        <v>2</v>
+      </c>
+      <c r="E145" t="s">
         <v>108</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>60</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>161.22124895711178</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>4</v>
       </c>
-      <c r="H145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
         <v>342</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>72</v>
       </c>
-      <c r="C146" t="s">
-        <v>2</v>
-      </c>
       <c r="D146" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" t="s">
         <v>149</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>93.432191942566149</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>5</v>
       </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
         <v>420</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>54</v>
       </c>
-      <c r="C147" t="s">
-        <v>2</v>
-      </c>
       <c r="D147" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" t="s">
         <v>104</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>8.7369002659035608</v>
       </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
       <c r="H147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
+        <v>2</v>
+      </c>
+      <c r="E148" t="s">
         <v>137</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>47.24</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>161.22124895711178</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>5</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
         <v>441</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>55</v>
       </c>
-      <c r="C149" t="s">
-        <v>2</v>
-      </c>
       <c r="D149" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
         <v>143</v>
       </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
       <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
         <v>82.547902033943757</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>4</v>
       </c>
-      <c r="H149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
         <v>442</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>63</v>
       </c>
-      <c r="C150" t="s">
-        <v>2</v>
-      </c>
       <c r="D150" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" t="s">
         <v>131</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
       <c r="H150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
         <v>443</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>23</v>
       </c>
-      <c r="C151" t="s">
-        <v>2</v>
-      </c>
       <c r="D151" t="s">
+        <v>2</v>
+      </c>
+      <c r="E151" t="s">
         <v>128</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>231.27734299174813</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>5</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
         <v>444</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>167</v>
       </c>
-      <c r="C152" t="s">
-        <v>2</v>
-      </c>
       <c r="D152" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
         <v>95</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>35.577304550758463</v>
       </c>
-      <c r="G152">
-        <v>2</v>
-      </c>
       <c r="H152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>281</v>
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
       </c>
       <c r="B153" t="s">
         <v>281</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="D153" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" t="s">
         <v>115</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>93.432191942566149</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>5</v>
       </c>
-      <c r="H153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
         <v>446</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>61</v>
       </c>
-      <c r="C154" t="s">
-        <v>2</v>
-      </c>
       <c r="D154" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" t="s">
         <v>131</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G154">
-        <v>2</v>
-      </c>
       <c r="H154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+        <v>2</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
         <v>467</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>273</v>
       </c>
-      <c r="C155" t="s">
-        <v>2</v>
-      </c>
       <c r="D155" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
         <v>100</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>100.84173741760144</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>5</v>
       </c>
-      <c r="H155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="I155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
         <v>445</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>62</v>
       </c>
-      <c r="C156" t="s">
-        <v>2</v>
-      </c>
       <c r="D156" t="s">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s">
         <v>131</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
       <c r="H156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>46</v>
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
       </c>
       <c r="B157" t="s">
         <v>46</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
-      </c>
-      <c r="F157">
+        <v>46</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2</v>
+      </c>
+      <c r="G157">
         <v>0.52436208073605961</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
         <v>447</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>282</v>
       </c>
-      <c r="C158" t="s">
-        <v>2</v>
-      </c>
       <c r="D158" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158" t="s">
         <v>115</v>
       </c>
-      <c r="E158">
+      <c r="F158">
         <v>69</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>161.22124895711178</v>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>5</v>
       </c>
-      <c r="H158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
         <v>448</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>180</v>
       </c>
-      <c r="C159" t="s">
-        <v>2</v>
-      </c>
       <c r="D159" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
         <v>100</v>
       </c>
-      <c r="H159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="I159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
         <v>449</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>75</v>
       </c>
-      <c r="C160" t="s">
-        <v>2</v>
-      </c>
       <c r="D160" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160" t="s">
         <v>114</v>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>33.33</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>161.22124895711178</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>4</v>
       </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161" t="s">
         <v>343</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>15</v>
       </c>
-      <c r="C161" t="s">
-        <v>2</v>
-      </c>
       <c r="D161" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" t="s">
         <v>122</v>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>322.2</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>161.22124895711178</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>5</v>
       </c>
-      <c r="H161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
         <v>450</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>232</v>
       </c>
-      <c r="C162" t="s">
-        <v>2</v>
-      </c>
       <c r="D162" t="s">
+        <v>2</v>
+      </c>
+      <c r="E162" t="s">
         <v>146</v>
       </c>
-      <c r="E162">
+      <c r="F162">
         <v>119</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>4.3740045081721641</v>
       </c>
-      <c r="G162">
-        <v>2</v>
-      </c>
       <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
         <v>451</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>278</v>
       </c>
-      <c r="C163" t="s">
-        <v>2</v>
-      </c>
       <c r="D163" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" t="s">
         <v>134</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>39.804818144216824</v>
-      </c>
-      <c r="G163">
-        <v>3</v>
       </c>
       <c r="H163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>24</v>
+      <c r="I163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
       </c>
       <c r="B164" t="s">
         <v>24</v>
       </c>
       <c r="C164" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D164" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" t="s">
         <v>135</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>1.6623041356945802</v>
       </c>
-      <c r="G164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="H164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
         <v>413</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>344</v>
       </c>
-      <c r="C165" t="s">
-        <v>2</v>
-      </c>
       <c r="D165" t="s">
+        <v>2</v>
+      </c>
+      <c r="E165" t="s">
         <v>131</v>
       </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
       <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G165">
-        <v>2</v>
-      </c>
       <c r="H165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+        <v>2</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
         <v>412</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>228</v>
       </c>
-      <c r="C166" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>11</v>
+      <c r="D166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D167" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" t="s">
         <v>115</v>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>226</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>161.22124895711178</v>
       </c>
-      <c r="G167">
+      <c r="H167">
         <v>5</v>
       </c>
-      <c r="H167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>69</v>
+      <c r="I167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
       </c>
       <c r="B168" t="s">
         <v>69</v>
       </c>
       <c r="C168" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D168" t="s">
+        <v>2</v>
+      </c>
+      <c r="E168" t="s">
         <v>110</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>33.556172657747275</v>
       </c>
-      <c r="G168">
+      <c r="H168">
         <v>5</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
         <v>345</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>191</v>
       </c>
-      <c r="C169" t="s">
-        <v>2</v>
-      </c>
       <c r="D169" t="s">
+        <v>2</v>
+      </c>
+      <c r="E169" t="s">
         <v>117</v>
       </c>
-      <c r="E169">
+      <c r="F169">
         <v>2530</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>451.40943607930217</v>
       </c>
-      <c r="G169">
+      <c r="H169">
         <v>4</v>
       </c>
-      <c r="H169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
         <v>482</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>192</v>
       </c>
-      <c r="C170" t="s">
-        <v>2</v>
-      </c>
       <c r="D170" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" t="s">
         <v>139</v>
       </c>
-      <c r="E170">
+      <c r="F170">
         <v>18</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>552.21103030663323</v>
       </c>
-      <c r="G170">
+      <c r="H170">
         <v>4</v>
       </c>
-      <c r="H170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="I170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
         <v>468</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>154</v>
       </c>
-      <c r="C171" t="s">
-        <v>2</v>
-      </c>
       <c r="D171" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" t="s">
         <v>97</v>
       </c>
-      <c r="E171">
+      <c r="F171">
         <v>5488</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>106.15677779056554</v>
       </c>
-      <c r="G171">
+      <c r="H171">
         <v>4</v>
       </c>
-      <c r="H171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="I171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
         <v>469</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>70</v>
       </c>
-      <c r="C172" t="s">
-        <v>2</v>
-      </c>
       <c r="D172" t="s">
+        <v>2</v>
+      </c>
+      <c r="E172" t="s">
         <v>137</v>
       </c>
-      <c r="E172">
+      <c r="F172">
         <v>47.24</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>161.22124895711178</v>
       </c>
-      <c r="G172">
+      <c r="H172">
         <v>5</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
         <v>470</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>270</v>
       </c>
-      <c r="C173" t="s">
-        <v>2</v>
-      </c>
       <c r="D173" t="s">
+        <v>2</v>
+      </c>
+      <c r="E173" t="s">
         <v>121</v>
       </c>
-      <c r="E173">
+      <c r="F173">
         <v>7</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>39.892313689077326</v>
       </c>
-      <c r="G173">
+      <c r="H173">
         <v>5</v>
       </c>
-      <c r="H173">
+      <c r="I173">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
         <v>471</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>290</v>
       </c>
-      <c r="C174" t="s">
-        <v>2</v>
-      </c>
       <c r="D174" t="s">
+        <v>2</v>
+      </c>
+      <c r="E174" t="s">
         <v>140</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>56.27</v>
       </c>
-      <c r="G174">
+      <c r="H174">
         <v>5</v>
       </c>
-      <c r="H174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+      <c r="I174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
         <v>411</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>274</v>
       </c>
-      <c r="C175" t="s">
-        <v>2</v>
-      </c>
       <c r="D175" t="s">
+        <v>2</v>
+      </c>
+      <c r="E175" t="s">
         <v>121</v>
       </c>
-      <c r="E175">
+      <c r="F175">
         <v>2040</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>242.66493044089697</v>
       </c>
-      <c r="G175">
+      <c r="H175">
         <v>6</v>
       </c>
-      <c r="H175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="I175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
         <v>472</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>174</v>
       </c>
-      <c r="C176" t="s">
-        <v>2</v>
-      </c>
       <c r="D176" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176" t="s">
         <v>124</v>
       </c>
-      <c r="E176">
+      <c r="F176">
         <v>190</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>67.20102998995668</v>
       </c>
-      <c r="G176">
+      <c r="H176">
         <v>4</v>
       </c>
-      <c r="H176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="I176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
         <v>410</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>176</v>
       </c>
-      <c r="C177" t="s">
-        <v>2</v>
-      </c>
       <c r="D177" t="s">
+        <v>2</v>
+      </c>
+      <c r="E177" t="s">
         <v>128</v>
       </c>
-      <c r="F177">
+      <c r="G177">
         <v>0</v>
-      </c>
-      <c r="G177">
-        <v>3</v>
       </c>
       <c r="H177">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="I177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
         <v>473</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>220</v>
       </c>
-      <c r="C178" t="s">
-        <v>2</v>
-      </c>
       <c r="D178" t="s">
+        <v>2</v>
+      </c>
+      <c r="E178" t="s">
         <v>100</v>
       </c>
-      <c r="E178">
+      <c r="F178">
         <v>440.3</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>161.22124895711178</v>
       </c>
-      <c r="G178">
+      <c r="H178">
         <v>5</v>
       </c>
-      <c r="H178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="I178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179" t="s">
         <v>474</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>276</v>
       </c>
-      <c r="C179" t="s">
-        <v>2</v>
-      </c>
       <c r="D179" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179" t="s">
         <v>129</v>
       </c>
-      <c r="E179">
+      <c r="F179">
         <v>3338</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>26.923059640233603</v>
       </c>
-      <c r="G179">
+      <c r="H179">
         <v>4</v>
       </c>
-      <c r="H179">
+      <c r="I179">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180" t="s">
         <v>475</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>163</v>
       </c>
-      <c r="C180" t="s">
-        <v>2</v>
-      </c>
       <c r="D180" t="s">
+        <v>2</v>
+      </c>
+      <c r="E180" t="s">
         <v>100</v>
       </c>
-      <c r="E180">
+      <c r="F180">
         <v>440.3</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>161.22124895711178</v>
       </c>
-      <c r="G180">
+      <c r="H180">
         <v>5</v>
       </c>
-      <c r="H180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="I180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181" t="s">
         <v>483</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>181</v>
       </c>
-      <c r="C181" t="s">
-        <v>2</v>
-      </c>
       <c r="D181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" t="s">
         <v>132</v>
       </c>
-      <c r="E181">
+      <c r="F181">
         <v>26</v>
       </c>
-      <c r="H181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="I181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182" t="s">
         <v>476</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>275</v>
       </c>
-      <c r="C182" t="s">
-        <v>2</v>
-      </c>
       <c r="D182" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" t="s">
         <v>31</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>31.904827005966556</v>
       </c>
-      <c r="G182">
+      <c r="H182">
         <v>4</v>
       </c>
-      <c r="H182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>153</v>
+      <c r="I182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
       </c>
       <c r="B183" t="s">
         <v>153</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="D183" t="s">
+        <v>2</v>
+      </c>
+      <c r="E183" t="s">
         <v>91</v>
       </c>
-      <c r="E183">
+      <c r="F183">
         <v>13</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>648.16097876466279</v>
       </c>
-      <c r="G183">
+      <c r="H183">
         <v>5</v>
       </c>
-      <c r="H183">
+      <c r="I183">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184" t="s">
         <v>409</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>60</v>
       </c>
-      <c r="C184" t="s">
-        <v>2</v>
-      </c>
       <c r="D184" t="s">
+        <v>2</v>
+      </c>
+      <c r="E184" t="s">
         <v>131</v>
       </c>
-      <c r="F184">
+      <c r="G184">
         <v>5.2529935346168033</v>
       </c>
-      <c r="G184">
-        <v>2</v>
-      </c>
       <c r="H184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+        <v>2</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185" t="s">
         <v>408</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>219</v>
       </c>
-      <c r="C185" t="s">
-        <v>2</v>
-      </c>
-      <c r="F185">
+      <c r="D185" t="s">
+        <v>2</v>
+      </c>
+      <c r="G185">
         <v>64.358947526679671</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186" t="s">
         <v>346</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>277</v>
       </c>
-      <c r="C186" t="s">
-        <v>2</v>
-      </c>
       <c r="D186" t="s">
+        <v>2</v>
+      </c>
+      <c r="E186" t="s">
         <v>0</v>
       </c>
-      <c r="E186">
+      <c r="F186">
         <v>17</v>
       </c>
-      <c r="F186">
+      <c r="G186">
         <v>2836.9473133809042</v>
       </c>
-      <c r="G186">
+      <c r="H186">
         <v>4</v>
       </c>
-      <c r="H186">
+      <c r="I186">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
         <v>347</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>162</v>
       </c>
-      <c r="C187" t="s">
-        <v>2</v>
-      </c>
       <c r="D187" t="s">
+        <v>2</v>
+      </c>
+      <c r="E187" t="s">
         <v>136</v>
       </c>
-      <c r="E187">
+      <c r="F187">
         <v>47.24</v>
       </c>
-      <c r="F187">
+      <c r="G187">
         <v>161.22124895711178</v>
       </c>
-      <c r="G187">
+      <c r="H187">
         <v>4</v>
       </c>
-      <c r="H187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="I187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188" t="s">
         <v>348</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>76</v>
       </c>
-      <c r="C188" t="s">
-        <v>2</v>
-      </c>
       <c r="D188" t="s">
+        <v>2</v>
+      </c>
+      <c r="E188" t="s">
         <v>109</v>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>47.24</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>93.432191942566149</v>
       </c>
-      <c r="G188">
+      <c r="H188">
         <v>4</v>
       </c>
-      <c r="H188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+      <c r="I188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189" t="s">
         <v>349</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>279</v>
       </c>
-      <c r="C189" t="s">
-        <v>2</v>
-      </c>
       <c r="D189" t="s">
+        <v>2</v>
+      </c>
+      <c r="E189" t="s">
         <v>138</v>
       </c>
-      <c r="E189">
+      <c r="F189">
         <v>47.24</v>
       </c>
-      <c r="F189">
+      <c r="G189">
         <v>161.22124895711178</v>
       </c>
-      <c r="G189">
+      <c r="H189">
         <v>4</v>
       </c>
-      <c r="H189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="I189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190" t="s">
         <v>396</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>12</v>
       </c>
-      <c r="C190" t="s">
-        <v>2</v>
-      </c>
       <c r="D190" t="s">
+        <v>2</v>
+      </c>
+      <c r="E190" t="s">
         <v>115</v>
       </c>
-      <c r="F190">
+      <c r="G190">
         <v>161.22124895711178</v>
       </c>
-      <c r="G190">
+      <c r="H190">
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>74</v>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1</v>
       </c>
       <c r="B191" t="s">
         <v>74</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D191" t="s">
+        <v>2</v>
+      </c>
+      <c r="E191" t="s">
         <v>120</v>
       </c>
-      <c r="E191">
+      <c r="F191">
         <v>322.2</v>
       </c>
-      <c r="F191">
+      <c r="G191">
         <v>161.22124895711178</v>
       </c>
-      <c r="G191">
+      <c r="H191">
         <v>6</v>
       </c>
-      <c r="H191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>214</v>
+      <c r="I191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1</v>
       </c>
       <c r="B192" t="s">
         <v>214</v>
       </c>
       <c r="C192" t="s">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="D192" t="s">
+        <v>2</v>
+      </c>
+      <c r="E192" t="s">
         <v>119</v>
       </c>
-      <c r="F192">
+      <c r="G192">
         <v>161.22124895711178</v>
       </c>
-      <c r="G192">
+      <c r="H192">
         <v>4</v>
       </c>
-      <c r="H192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+      <c r="I192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193" t="s">
         <v>350</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>230</v>
       </c>
-      <c r="C193" t="s">
-        <v>2</v>
-      </c>
-      <c r="F193">
+      <c r="D193" t="s">
+        <v>2</v>
+      </c>
+      <c r="G193">
         <v>161.22124895711178</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>13</v>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
       </c>
       <c r="B194" t="s">
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D194" t="s">
+        <v>2</v>
+      </c>
+      <c r="E194" t="s">
         <v>115</v>
       </c>
-      <c r="E194">
+      <c r="F194">
         <v>9</v>
       </c>
-      <c r="F194">
+      <c r="G194">
         <v>161.22124895711178</v>
       </c>
-      <c r="G194">
+      <c r="H194">
         <v>5</v>
       </c>
-      <c r="H194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>14</v>
+      <c r="I194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1</v>
       </c>
       <c r="B195" t="s">
         <v>14</v>
       </c>
       <c r="C195" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D195" t="s">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
         <v>115</v>
       </c>
-      <c r="E195">
+      <c r="F195">
         <v>18</v>
       </c>
-      <c r="F195">
+      <c r="G195">
         <v>161.22124895711178</v>
       </c>
-      <c r="G195">
+      <c r="H195">
         <v>5</v>
       </c>
-      <c r="H195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>16</v>
+      <c r="I195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1</v>
       </c>
       <c r="B196" t="s">
         <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1</v>
       </c>
       <c r="B197" t="s">
         <v>73</v>
       </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="D197" t="s">
+        <v>2</v>
+      </c>
+      <c r="E197" t="s">
         <v>115</v>
       </c>
-      <c r="F197">
+      <c r="G197">
         <v>161.22124895711178</v>
       </c>
-      <c r="G197">
+      <c r="H197">
         <v>5</v>
       </c>
-      <c r="H197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+      <c r="I197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198" t="s">
         <v>404</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>280</v>
       </c>
-      <c r="C198" t="s">
-        <v>2</v>
-      </c>
       <c r="D198" t="s">
+        <v>2</v>
+      </c>
+      <c r="E198" t="s">
         <v>134</v>
       </c>
-      <c r="E198">
-        <v>1</v>
-      </c>
       <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
         <v>556.00268914420349</v>
       </c>
-      <c r="G198">
+      <c r="H198">
         <v>4</v>
       </c>
-      <c r="H198">
+      <c r="I198">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>17</v>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1</v>
       </c>
       <c r="B199" t="s">
         <v>17</v>
       </c>
       <c r="C199" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
         <v>405</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>20</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>30</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>93</v>
       </c>
-      <c r="E200">
+      <c r="F200">
         <v>20.49</v>
       </c>
-      <c r="F200">
+      <c r="G200">
         <v>200</v>
       </c>
-      <c r="G200">
+      <c r="H200">
         <v>3</v>
       </c>
-      <c r="H200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+      <c r="I200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201" t="s">
         <v>407</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>283</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>30</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>126</v>
       </c>
-      <c r="F201">
+      <c r="G201">
         <v>100.79047705176647</v>
       </c>
-      <c r="G201">
+      <c r="H201">
         <v>4</v>
       </c>
-      <c r="H201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>22</v>
+      <c r="I201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1</v>
       </c>
       <c r="B202" t="s">
         <v>22</v>
       </c>
       <c r="C202" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202" t="s">
         <v>30</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>128</v>
       </c>
-      <c r="E202">
+      <c r="F202">
         <v>237</v>
       </c>
-      <c r="F202">
+      <c r="G202">
         <v>80.319051204101015</v>
       </c>
-      <c r="G202">
+      <c r="H202">
         <v>6</v>
       </c>
-      <c r="H202">
+      <c r="I202">
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>284</v>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1</v>
       </c>
       <c r="B203" t="s">
         <v>284</v>
       </c>
       <c r="C203" t="s">
+        <v>284</v>
+      </c>
+      <c r="D203" t="s">
         <v>30</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>101</v>
       </c>
-      <c r="E203">
+      <c r="F203">
         <v>124.38</v>
       </c>
-      <c r="F203">
+      <c r="G203">
         <v>200</v>
       </c>
-      <c r="G203">
+      <c r="H203">
         <v>4</v>
       </c>
-      <c r="H203">
+      <c r="I203">
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204" t="s">
         <v>477</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>156</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>30</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>98</v>
       </c>
-      <c r="F204">
+      <c r="G204">
         <v>217.8898459511226</v>
       </c>
-      <c r="G204">
+      <c r="H204">
         <v>4</v>
       </c>
-      <c r="H204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+      <c r="I204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
         <v>478</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>42</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>30</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>100</v>
       </c>
-      <c r="H205">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>47</v>
+      <c r="I205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1</v>
       </c>
       <c r="B206" t="s">
         <v>47</v>
       </c>
       <c r="C206" t="s">
+        <v>47</v>
+      </c>
+      <c r="D206" t="s">
         <v>30</v>
       </c>
-      <c r="F206">
+      <c r="G206">
         <v>3.1737215953354062E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207" t="s">
         <v>395</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>18</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>30</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>101</v>
       </c>
-      <c r="F207">
+      <c r="G207">
         <v>200</v>
       </c>
-      <c r="G207">
+      <c r="H207">
         <v>4</v>
       </c>
-      <c r="H207">
+      <c r="I207">
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>165</v>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
       </c>
       <c r="B208" t="s">
         <v>165</v>
       </c>
       <c r="C208" t="s">
+        <v>165</v>
+      </c>
+      <c r="D208" t="s">
         <v>30</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>298</v>
       </c>
-      <c r="E208">
+      <c r="F208">
         <v>31.18</v>
       </c>
-      <c r="F208">
+      <c r="G208">
         <v>200</v>
       </c>
-      <c r="G208">
+      <c r="H208">
         <v>4</v>
       </c>
-      <c r="H208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>19</v>
+      <c r="I208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
       </c>
       <c r="B209" t="s">
         <v>19</v>
       </c>
       <c r="C209" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" t="s">
         <v>30</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>134</v>
       </c>
-      <c r="E209">
+      <c r="F209">
         <v>10</v>
       </c>
-      <c r="F209">
+      <c r="G209">
         <v>200</v>
       </c>
-      <c r="G209">
+      <c r="H209">
         <v>4</v>
       </c>
-      <c r="H209">
+      <c r="I209">
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>166</v>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
       </c>
       <c r="B210" t="s">
         <v>166</v>
       </c>
       <c r="C210" t="s">
+        <v>166</v>
+      </c>
+      <c r="D210" t="s">
         <v>30</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>121</v>
       </c>
-      <c r="F210">
+      <c r="G210">
         <v>200</v>
       </c>
-      <c r="G210">
+      <c r="H210">
         <v>5</v>
       </c>
-      <c r="H210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+      <c r="I210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211" t="s">
         <v>393</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>29</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>30</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>103</v>
       </c>
-      <c r="E211">
+      <c r="F211">
         <v>630.6</v>
       </c>
-      <c r="F211">
+      <c r="G211">
         <v>12.527234689481087</v>
       </c>
-      <c r="G211">
-        <v>1</v>
-      </c>
       <c r="H211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+      <c r="I211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
         <v>351</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>201</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>30</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>0</v>
       </c>
-      <c r="F212">
+      <c r="G212">
         <v>1864.30255997415</v>
       </c>
-      <c r="G212">
+      <c r="H212">
         <v>4</v>
       </c>
-      <c r="H212">
+      <c r="I212">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>48</v>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1</v>
       </c>
       <c r="B213" t="s">
         <v>48</v>
       </c>
       <c r="C213" t="s">
+        <v>48</v>
+      </c>
+      <c r="D213" t="s">
         <v>30</v>
       </c>
-      <c r="F213">
+      <c r="G213">
         <v>3.1737215953354062E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>213</v>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1</v>
       </c>
       <c r="B214" t="s">
         <v>213</v>
       </c>
       <c r="C214" t="s">
+        <v>213</v>
+      </c>
+      <c r="D214" t="s">
         <v>30</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>148</v>
       </c>
-      <c r="E214">
+      <c r="F214">
         <v>42.73</v>
       </c>
-      <c r="F214">
+      <c r="G214">
         <v>200</v>
       </c>
-      <c r="G214">
+      <c r="H214">
         <v>3</v>
       </c>
-      <c r="H214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+      <c r="I214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215" t="s">
         <v>352</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>285</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>30</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>90</v>
       </c>
-      <c r="E215">
+      <c r="F215">
         <v>230</v>
       </c>
-      <c r="F215">
+      <c r="G215">
         <v>129.854341510739</v>
       </c>
-      <c r="G215">
+      <c r="H215">
         <v>4</v>
       </c>
-      <c r="H215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+      <c r="I215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
         <v>353</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>286</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>30</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>99</v>
       </c>
-      <c r="E216">
+      <c r="F216">
         <v>427</v>
       </c>
-      <c r="F216">
+      <c r="G216">
         <v>688.50801270442935</v>
       </c>
-      <c r="G216">
+      <c r="H216">
         <v>5</v>
       </c>
-      <c r="H216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+      <c r="I216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217" t="s">
         <v>354</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>287</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>30</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>83</v>
       </c>
-      <c r="E217">
+      <c r="F217">
         <v>1539</v>
       </c>
-      <c r="F217">
+      <c r="G217">
         <v>2459.96135682262</v>
       </c>
-      <c r="G217">
+      <c r="H217">
         <v>5</v>
       </c>
-      <c r="H217">
+      <c r="I217">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
         <v>406</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>288</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>30</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>115</v>
       </c>
-      <c r="F218">
+      <c r="G218">
         <v>100.79047705176647</v>
       </c>
-      <c r="G218">
+      <c r="H218">
         <v>5</v>
       </c>
-      <c r="H218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+      <c r="I218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
         <v>394</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>155</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>30</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>117</v>
       </c>
-      <c r="E219">
+      <c r="F219">
         <v>530</v>
       </c>
-      <c r="H219">
+      <c r="I219">
         <v>1</v>
       </c>
     </row>
